--- a/data/hotels_by_city/Houston/Houston_shard_87.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_87.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56123-d106751-Reviews-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Lake-Jackson-Hotels-Clarion-Inn.h16722.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1143 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r565148861-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>56123</t>
+  </si>
+  <si>
+    <t>106751</t>
+  </si>
+  <si>
+    <t>565148861</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Reasonable Stay Friendly Staff</t>
+  </si>
+  <si>
+    <t>Loved the hotel it was clean, reasonable offered breakfast had a bar and restaurants within walking distance. Had a great stay and would return in a second and bring my dogs next time. The staff was friendly and I wasn't disappointed overall.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r562597392-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>562597392</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I had a great stay overall, I read the reviews on this property and was skeptical, but decided to give it a shot and was not disappointed. The staff, room, and overall maintenance of the property was in great shape. Looks like the management has been paying attention to these reviews because the previous issues mentioned here were taken care.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r561828615-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>561828615</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Wanted to save a little $, but go elsewhere</t>
+  </si>
+  <si>
+    <t>Clarion chain should check out this location.  It looked pretty wonderful in the lobby, but once we walked down the stinky over-perfumed (causing questions, many questions) hallways, we knew something was not right.  We were so tired, we stayed but got out asap.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r515638898-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>515638898</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Worst Hotel stay ever!!!</t>
+  </si>
+  <si>
+    <t>By FAR, the absolute worst hotel I have ever stayed at for my entire life of 48 years! I booked their only 3-room suite for three (3) nights. From the moment we opened the room door, the horrible smell of fumes nearly knocked me out. The smell only got worse as I made my way to the left-side bedroom. The manager came in, and said that it was the plugged-in air-freshener causing the smell. So, it was removed and we opened up all the windows for a while to air out the place. The smell only lightened for a short while as it mixed with the outside air, but it never really went away and soon came back full strength. I bought five (5) cans of Febreeze and some carpet freshener, and that was a waste of time and money!!! As the night went on, I found myself falling asleep on the couch, only to wake the next morning with a bad headache, body aches and my throat was burning. Even my wife was suffering from a headache, which was amazing, because she has lost her sense of smell. Even though my stay was free from using my reward points, I opted to leave after the first night, and paid another area hotel $350 for two (2) nights. This sorry Clarion Inn Hotel did NOT even give me back my all of points for staying only one (1) night in...By FAR, the absolute worst hotel I have ever stayed at for my entire life of 48 years! I booked their only 3-room suite for three (3) nights. From the moment we opened the room door, the horrible smell of fumes nearly knocked me out. The smell only got worse as I made my way to the left-side bedroom. The manager came in, and said that it was the plugged-in air-freshener causing the smell. So, it was removed and we opened up all the windows for a while to air out the place. The smell only lightened for a short while as it mixed with the outside air, but it never really went away and soon came back full strength. I bought five (5) cans of Febreeze and some carpet freshener, and that was a waste of time and money!!! As the night went on, I found myself falling asleep on the couch, only to wake the next morning with a bad headache, body aches and my throat was burning. Even my wife was suffering from a headache, which was amazing, because she has lost her sense of smell. Even though my stay was free from using my reward points, I opted to leave after the first night, and paid another area hotel $350 for two (2) nights. This sorry Clarion Inn Hotel did NOT even give me back my all of points for staying only one (1) night in this dump that needs to be bulldozed ASAP!!! I'm actually glad my family and me got out alive, and not by ambulance to the local Emergency Room!!! On top of that, the elevator broke the day we checked in, and was still broke when we left our 2nd story room the next day. It sucked taking all the luggage down the stairs!!! I will never, never, never, never, never, never, never stay here again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>By FAR, the absolute worst hotel I have ever stayed at for my entire life of 48 years! I booked their only 3-room suite for three (3) nights. From the moment we opened the room door, the horrible smell of fumes nearly knocked me out. The smell only got worse as I made my way to the left-side bedroom. The manager came in, and said that it was the plugged-in air-freshener causing the smell. So, it was removed and we opened up all the windows for a while to air out the place. The smell only lightened for a short while as it mixed with the outside air, but it never really went away and soon came back full strength. I bought five (5) cans of Febreeze and some carpet freshener, and that was a waste of time and money!!! As the night went on, I found myself falling asleep on the couch, only to wake the next morning with a bad headache, body aches and my throat was burning. Even my wife was suffering from a headache, which was amazing, because she has lost her sense of smell. Even though my stay was free from using my reward points, I opted to leave after the first night, and paid another area hotel $350 for two (2) nights. This sorry Clarion Inn Hotel did NOT even give me back my all of points for staying only one (1) night in...By FAR, the absolute worst hotel I have ever stayed at for my entire life of 48 years! I booked their only 3-room suite for three (3) nights. From the moment we opened the room door, the horrible smell of fumes nearly knocked me out. The smell only got worse as I made my way to the left-side bedroom. The manager came in, and said that it was the plugged-in air-freshener causing the smell. So, it was removed and we opened up all the windows for a while to air out the place. The smell only lightened for a short while as it mixed with the outside air, but it never really went away and soon came back full strength. I bought five (5) cans of Febreeze and some carpet freshener, and that was a waste of time and money!!! As the night went on, I found myself falling asleep on the couch, only to wake the next morning with a bad headache, body aches and my throat was burning. Even my wife was suffering from a headache, which was amazing, because she has lost her sense of smell. Even though my stay was free from using my reward points, I opted to leave after the first night, and paid another area hotel $350 for two (2) nights. This sorry Clarion Inn Hotel did NOT even give me back my all of points for staying only one (1) night in this dump that needs to be bulldozed ASAP!!! I'm actually glad my family and me got out alive, and not by ambulance to the local Emergency Room!!! On top of that, the elevator broke the day we checked in, and was still broke when we left our 2nd story room the next day. It sucked taking all the luggage down the stairs!!! I will never, never, never, never, never, never, never stay here again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r503355283-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>503355283</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Eh, a Bit Lacking...</t>
+  </si>
+  <si>
+    <t>The lobby is nice...huge, open area with a water feature and side bar.The rooms are dated...musty. There was hair in the bathtub. Phone didn't work at all, even to call the front desk.Staff was polite, allowed us a late check out...There is a restaurant adjoining the hotel but there is no room service...you have to go to the bar for a drink or into the restaurant to eat.Overall, it is suitable for a night's rest...but not a modern hotel.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r501425313-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>501425313</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Clarion Inn</t>
+  </si>
+  <si>
+    <t>this was a really nice place. all rooms face the atrium. free continental b'fast was a little bland. lots of people here but very quiet. it's an older place that is being updated. had 2 queen beds. very comfortable. the atrium w/fountain was beautiful. kids are not allowed upstairs. they stay on the first floor, which is nice--no stomping or jumping on beds.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r479014360-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>479014360</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATED REVIEW </t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Clarion Inn for the first time since the most recent 'turnover' of ownership. The phone in our room did not work at all. We requested a roll away bed to accommodate a guest on one of the two nights we stayed. One employee told my husband that there would be no charge for the bed, but later, we were advised that we would incur a $12 charge. We returned to the room several times during our stay and had no problems with either of the room card's we  were issued when we checked in. Knowing that our guest would be returning after we had retired for the night, we DID NOT use additional means to lock the door. Our guest was unable to enter the door, even after getting another key card. The employee, who was on night duty, was unable to call the room (broken phone), and mistakenly called the wrong room at sometime after 1am. She accompanied my guest to our room, and snapped at my guest after the visitor loudly knocked on the door. I opened the door to admit my guest and observed a rather put out employee (whom I knew was working the front desk; I saw her when I left and returned to the inn). I was not offered a replacement key card, as the employee kept the one's that didn't work. I also observed that there...My husband and I stayed at the Clarion Inn for the first time since the most recent 'turnover' of ownership. The phone in our room did not work at all. We requested a roll away bed to accommodate a guest on one of the two nights we stayed. One employee told my husband that there would be no charge for the bed, but later, we were advised that we would incur a $12 charge. We returned to the room several times during our stay and had no problems with either of the room card's we  were issued when we checked in. Knowing that our guest would be returning after we had retired for the night, we DID NOT use additional means to lock the door. Our guest was unable to enter the door, even after getting another key card. The employee, who was on night duty, was unable to call the room (broken phone), and mistakenly called the wrong room at sometime after 1am. She accompanied my guest to our room, and snapped at my guest after the visitor loudly knocked on the door. I opened the door to admit my guest and observed a rather put out employee (whom I knew was working the front desk; I saw her when I left and returned to the inn). I was not offered a replacement key card, as the employee kept the one's that didn't work. I also observed that there are very few, only one that I saw, security lights in the back parking lot, so I wouldn't park my car in that location. Directly behind my room was a heavily damaged vehicle, which only added to my security concerns. There was no reason for an employee of the Clarion Inn to treat a visitor or guest in such a disrespectful manner. It was not our fault that the employee was inconvenienced by the failure of the key card. I didn't appreciate being accused of locking the door, when I knew that another guest would be returning and entering the room. I usually stay at this hotel when I am in my hometown, but I may have to reconsider my lodging needs in the future. The service has definitely deteriorated since my previous review. Hopefully, the management will take steps to resolve these issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Clarion Inn for the first time since the most recent 'turnover' of ownership. The phone in our room did not work at all. We requested a roll away bed to accommodate a guest on one of the two nights we stayed. One employee told my husband that there would be no charge for the bed, but later, we were advised that we would incur a $12 charge. We returned to the room several times during our stay and had no problems with either of the room card's we  were issued when we checked in. Knowing that our guest would be returning after we had retired for the night, we DID NOT use additional means to lock the door. Our guest was unable to enter the door, even after getting another key card. The employee, who was on night duty, was unable to call the room (broken phone), and mistakenly called the wrong room at sometime after 1am. She accompanied my guest to our room, and snapped at my guest after the visitor loudly knocked on the door. I opened the door to admit my guest and observed a rather put out employee (whom I knew was working the front desk; I saw her when I left and returned to the inn). I was not offered a replacement key card, as the employee kept the one's that didn't work. I also observed that there...My husband and I stayed at the Clarion Inn for the first time since the most recent 'turnover' of ownership. The phone in our room did not work at all. We requested a roll away bed to accommodate a guest on one of the two nights we stayed. One employee told my husband that there would be no charge for the bed, but later, we were advised that we would incur a $12 charge. We returned to the room several times during our stay and had no problems with either of the room card's we  were issued when we checked in. Knowing that our guest would be returning after we had retired for the night, we DID NOT use additional means to lock the door. Our guest was unable to enter the door, even after getting another key card. The employee, who was on night duty, was unable to call the room (broken phone), and mistakenly called the wrong room at sometime after 1am. She accompanied my guest to our room, and snapped at my guest after the visitor loudly knocked on the door. I opened the door to admit my guest and observed a rather put out employee (whom I knew was working the front desk; I saw her when I left and returned to the inn). I was not offered a replacement key card, as the employee kept the one's that didn't work. I also observed that there are very few, only one that I saw, security lights in the back parking lot, so I wouldn't park my car in that location. Directly behind my room was a heavily damaged vehicle, which only added to my security concerns. There was no reason for an employee of the Clarion Inn to treat a visitor or guest in such a disrespectful manner. It was not our fault that the employee was inconvenienced by the failure of the key card. I didn't appreciate being accused of locking the door, when I knew that another guest would be returning and entering the room. I usually stay at this hotel when I am in my hometown, but I may have to reconsider my lodging needs in the future. The service has definitely deteriorated since my previous review. Hopefully, the management will take steps to resolve these issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r475940758-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>475940758</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>double charges for rooms and does nothing to fix it.</t>
+  </si>
+  <si>
+    <t>i was charged 237.00 for a room that was slotted to be 104.00 per night.  i showed them the extra charged in my bank account and they did nothing to fix the problem and kept telling me they didn't charge anything and that it must be hotels.com,  thats when i showed them it said Clarion Inn Lack Jackson on the charges in my bank statement on line and again they refused to resolve the issue.  the manager never called me and the desk clerk refused to call her for me.   worst service i have ever had when dealing with a hotel and i travel quite a bit so that says a lot.  save your money and a heartache go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>i was charged 237.00 for a room that was slotted to be 104.00 per night.  i showed them the extra charged in my bank account and they did nothing to fix the problem and kept telling me they didn't charge anything and that it must be hotels.com,  thats when i showed them it said Clarion Inn Lack Jackson on the charges in my bank statement on line and again they refused to resolve the issue.  the manager never called me and the desk clerk refused to call her for me.   worst service i have ever had when dealing with a hotel and i travel quite a bit so that says a lot.  save your money and a heartache go somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r456296542-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>456296542</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>One snafu after another</t>
+  </si>
+  <si>
+    <t>The room was clean. No readily accessible  receptacles except for the desk lamp and the bathroom. Others are behind the bed. The room is clean. The bathroom small. The shower handle is hard to adjust. The neighbor's shower water evidently drains in my drain cause it gets very loud when he showers and the nose gets loud from my tub drain.The internet was so slow from a broken router close to my room that I asked to move into the room with the loud drain and no receptacles.  My desk lamp and microwave do not get power from behind the console. I have complained and it was never fixed, 4 days ago I complained. Got home today to no desk light and no microwave. Therefore no place to plug in my computer and phone, except the bathroom.  Breakfast was on time only twice out of the 5 days I have been here. I leave for work early so I have been skipping the luxury. Not there anyway. The coffee pot in the room does not work and I complained to no avail. I took it down to the desk tonight.I am working in the area and so I was put here by my company.I am at the desk regularly asking for something to get fixed. The clerk takes out a pad, writes it down, and nothing is ever done.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>The room was clean. No readily accessible  receptacles except for the desk lamp and the bathroom. Others are behind the bed. The room is clean. The bathroom small. The shower handle is hard to adjust. The neighbor's shower water evidently drains in my drain cause it gets very loud when he showers and the nose gets loud from my tub drain.The internet was so slow from a broken router close to my room that I asked to move into the room with the loud drain and no receptacles.  My desk lamp and microwave do not get power from behind the console. I have complained and it was never fixed, 4 days ago I complained. Got home today to no desk light and no microwave. Therefore no place to plug in my computer and phone, except the bathroom.  Breakfast was on time only twice out of the 5 days I have been here. I leave for work early so I have been skipping the luxury. Not there anyway. The coffee pot in the room does not work and I complained to no avail. I took it down to the desk tonight.I am working in the area and so I was put here by my company.I am at the desk regularly asking for something to get fixed. The clerk takes out a pad, writes it down, and nothing is ever done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r402672096-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>402672096</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Home sweet Home visit</t>
+  </si>
+  <si>
+    <t>Upon arrival into Lake Jackson, i noticed the hotel was right off the exit and easy to get too.  The property is located off the main hwy into Freeport, TX and have plenty of eateries around including on the premises.  The breakfast was ok, but the waffles were the highlight.  The staff was wonderful from check in to check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Hemi P, General Manager at Clarion Inn, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Upon arrival into Lake Jackson, i noticed the hotel was right off the exit and easy to get too.  The property is located off the main hwy into Freeport, TX and have plenty of eateries around including on the premises.  The breakfast was ok, but the waffles were the highlight.  The staff was wonderful from check in to check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r398931225-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>398931225</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Not great</t>
+  </si>
+  <si>
+    <t>I realize hotels near the beach are expensive, but then it IS a refinery town. I believe the high-ish prices were more due to oil company employees than beach vicinity. The hotel was under construction and seemed to be having improvements which are much needed. Our room had a peeling mirror back, scratches in porcelain everywhere and smelled...well, I'm not really sure, but we got used to it after 10 minutes or so. WIth a final price taxes and all of $140, I will not be staying in Lake Jackson again since all the hotels are about the same or more. In other locations, I would expect to pay about $75 for a hotel like this. Also, the hallways were comfortable but the rooms were SO humid!  And I live in Houston where we're used to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I realize hotels near the beach are expensive, but then it IS a refinery town. I believe the high-ish prices were more due to oil company employees than beach vicinity. The hotel was under construction and seemed to be having improvements which are much needed. Our room had a peeling mirror back, scratches in porcelain everywhere and smelled...well, I'm not really sure, but we got used to it after 10 minutes or so. WIth a final price taxes and all of $140, I will not be staying in Lake Jackson again since all the hotels are about the same or more. In other locations, I would expect to pay about $75 for a hotel like this. Also, the hallways were comfortable but the rooms were SO humid!  And I live in Houston where we're used to it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r395661438-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>395661438</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Lacks customer service</t>
+  </si>
+  <si>
+    <t>Beds are comfortable. Most maids are terrific and friendly.Breakfast is horrible .It tastes and looks like the leftover's from the previous morning..Eggs are very dry. Bacon is not whole pieces it has been cut up.The Hash browns all stuck together and were dry and under cooked.They tastes as though they had been cooked in a microwave.Not even the bread tastes fresh.Yogurt and cereal are safe choices..This hotel has a very low enthusiastic need to put customers first and making you feel at home. Smiles and greetings from the front desk are minimal depending on whom is working at the front .If you don't expect much you won't be let down..The worst choice hotels we have ever stayed at :)...I sure hope things improve ! We travel all year round due to my husbands work and he wants to leave this hotel .I'm am just simply exhausted from hotel hopping so my fingers are crossed that things will get better ..I will keep you all informed as to how things go..MoreShow less</t>
+  </si>
+  <si>
+    <t>Beds are comfortable. Most maids are terrific and friendly.Breakfast is horrible .It tastes and looks like the leftover's from the previous morning..Eggs are very dry. Bacon is not whole pieces it has been cut up.The Hash browns all stuck together and were dry and under cooked.They tastes as though they had been cooked in a microwave.Not even the bread tastes fresh.Yogurt and cereal are safe choices..This hotel has a very low enthusiastic need to put customers first and making you feel at home. Smiles and greetings from the front desk are minimal depending on whom is working at the front .If you don't expect much you won't be let down..The worst choice hotels we have ever stayed at :)...I sure hope things improve ! We travel all year round due to my husbands work and he wants to leave this hotel .I'm am just simply exhausted from hotel hopping so my fingers are crossed that things will get better ..I will keep you all informed as to how things go..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r374298369-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>374298369</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright for a night... </t>
+  </si>
+  <si>
+    <t>We were there for a week and got stuck all the way in the back with all of the construction going on, mattresses and other clutter everywhere. The room had such a strong indescribable odor, went through a bottle of febreeze during our stay. Requested a room towards the front and was denied due to those rooms only being available for people staying a day or two. Not sure if this is the hotel policy or just the cleaning ladies but if you want your room cleaned daily you must request it. As for the "indoor pool"  it is not. It is enclosed by a brick wall about chest high and the rest was nothing but torn and falling screen. The only reason I rather this place a two is because the staff was so friendly and helpful. Room 159!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We were there for a week and got stuck all the way in the back with all of the construction going on, mattresses and other clutter everywhere. The room had such a strong indescribable odor, went through a bottle of febreeze during our stay. Requested a room towards the front and was denied due to those rooms only being available for people staying a day or two. Not sure if this is the hotel policy or just the cleaning ladies but if you want your room cleaned daily you must request it. As for the "indoor pool"  it is not. It is enclosed by a brick wall about chest high and the rest was nothing but torn and falling screen. The only reason I rather this place a two is because the staff was so friendly and helpful. Room 159!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r358323320-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>358323320</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Excellent place to stay(all in one)</t>
+  </si>
+  <si>
+    <t>Very nice customer service &amp; newly renovated rooms. They have bar &amp; resturant on property which is very nice. I will definitely stay here again &amp; recommend to other people to give a try.ohh &amp; I forget to mention they have excellent hot breakfast in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Very nice customer service &amp; newly renovated rooms. They have bar &amp; resturant on property which is very nice. I will definitely stay here again &amp; recommend to other people to give a try.ohh &amp; I forget to mention they have excellent hot breakfast in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r350405424-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>350405424</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great staff, great service, great breakfast </t>
+  </si>
+  <si>
+    <t>As soon as i walked in, I got welcome in a very polite way. Decent breakfast, great housekeeping and great lobby. Front desk was always smiling and everytime i needed help they kindly offer to help. i will definitely check them out for my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>As soon as i walked in, I got welcome in a very polite way. Decent breakfast, great housekeeping and great lobby. Front desk was always smiling and everytime i needed help they kindly offer to help. i will definitely check them out for my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r348531596-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>348531596</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Unique lobby and pool</t>
+  </si>
+  <si>
+    <t>Loved the large open area off the lobby very unique! the pool is small but nice and screened in so no pesty bugs. The little bar was a welcomed sight after a long day at the beach. the breakfast buffet was very enjoyableMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Loved the large open area off the lobby very unique! the pool is small but nice and screened in so no pesty bugs. The little bar was a welcomed sight after a long day at the beach. the breakfast buffet was very enjoyableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r338587784-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>338587784</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place but too loud </t>
+  </si>
+  <si>
+    <t>I stayed here the other night and was satisfied with everything except the loud music at the bar.    I'm not against people listening to music and drinking beer, but music as loud as a nightclub for a few people is way overboard.  Tv only had a few channels out of the guide and picture sucked.   Wasn't a big deal though .   Everything was great, besides the music .   Main purpose of a hotel is to get a good nights' sleep !!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r326383228-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>326383228</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funky layout, updated rooms, rude housekeepers. </t>
+  </si>
+  <si>
+    <t>We were surprised by the big open area of the center of the hotel but quickly grew to like it. There are features that have been nicely updated and others that badly need a renovation. For instance, our room was very nicely updated except the ceiling in the bathroom which had an old stained t-bar ceiling. The bed was comfortable. The tv was really fuzzy in picture (in both rooms we stayed in) and we noticed the lobby tv was also fuzzy. Not sure what that's about. We had a "Do Not Disturb" sign in our door but that didn't stop the housekeeper from knocking and asking when we were leaving AN HOUR BEFORE the checkout time. When I told her we had a late checkout, she tilted her head sideways and said in a sad voice "really??". Apparently our being a guest has got in the way of her day. That was very irritating. The employee at the breakfast area was rude to my husband when he asked about getting more milk. Again, we apparently were disturbing the employees by asking them to do their jobs. Even with that in mind, we still enjoyed the hotel and do not want to blame the hotel for the bad staff.... Hopefully they get on that issue soon. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Hemi P, Manager at Clarion Inn, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>We were surprised by the big open area of the center of the hotel but quickly grew to like it. There are features that have been nicely updated and others that badly need a renovation. For instance, our room was very nicely updated except the ceiling in the bathroom which had an old stained t-bar ceiling. The bed was comfortable. The tv was really fuzzy in picture (in both rooms we stayed in) and we noticed the lobby tv was also fuzzy. Not sure what that's about. We had a "Do Not Disturb" sign in our door but that didn't stop the housekeeper from knocking and asking when we were leaving AN HOUR BEFORE the checkout time. When I told her we had a late checkout, she tilted her head sideways and said in a sad voice "really??". Apparently our being a guest has got in the way of her day. That was very irritating. The employee at the breakfast area was rude to my husband when he asked about getting more milk. Again, we apparently were disturbing the employees by asking them to do their jobs. Even with that in mind, we still enjoyed the hotel and do not want to blame the hotel for the bad staff.... Hopefully they get on that issue soon. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r316320963-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>316320963</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Out of date rooms and under construction in front</t>
+  </si>
+  <si>
+    <t>Cheap weekly rate but you get what you pay for here. The beds are hard as brick, the rooms are old and musty. Had to change rooms 3 times because the air conditioners leak water inside the room. Bath fixtures broken, TV remotes didn't work, room doors had to be slammed to shut, outside doors to hotel and swimming pool didn't lock, not very accommodating when you have a complaint, front desk clerks aren't very bright and the manager is conveniently never there. They will not refund your money if you pay by the week and check out early. We left 4 days early but no refund.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r306802553-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>306802553</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>very clean &amp; comfortable with affordable price</t>
+  </si>
+  <si>
+    <t>we were visiting our family &amp; decided to try this hotel &amp; everything was percfect. Nice big clean room.everythings looks new in room. Bar &amp; breakfast area was newly done. Hot breakfast was very fresh. I will stay here agin &amp; recommend this hotel to everyone.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r306105649-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>306105649</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Will definitely come back</t>
+  </si>
+  <si>
+    <t>The staff is very friendly. The place is so nice. The rooms are clean, spacious, and comfortable. The had renewed the breakfast area and bar and I can honestly say that We enjoyed every single thing in the breakfast,  and the girls at the bar are great just like everything on it, we Had such a great time The manager, and front desk ladies are incredible. They will answer any questions we had and gave us suggestions on where to go to eat. They made us feel welcomed in this town. They show us how much they really care about their customers. When I return to Lake Jackson area I will be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is very friendly. The place is so nice. The rooms are clean, spacious, and comfortable. The had renewed the breakfast area and bar and I can honestly say that We enjoyed every single thing in the breakfast,  and the girls at the bar are great just like everything on it, we Had such a great time The manager, and front desk ladies are incredible. They will answer any questions we had and gave us suggestions on where to go to eat. They made us feel welcomed in this town. They show us how much they really care about their customers. When I return to Lake Jackson area I will be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r296298970-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>296298970</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Would have paid more for a better bed!</t>
+  </si>
+  <si>
+    <t>This is a nice enough property and the staff is very friendly. They have very poor water pressure but the one thing that sticks out in my mind is the mattress felt like it was from the 1800s! It felt like it was filled with straw! Other than that, this is a decent place to stay and it's half the price of some of the other properties like Comfort Suites.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r296114689-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>296114689</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Excellent staff, clean property</t>
+  </si>
+  <si>
+    <t>After reading all reviews, i decided to try out Clarion Inn as my stay for business. It is reasonable. My first impression was welcoming lobby and friendly staff. Looks very new. I had few requests for my stay and they were on top of it. I found my room very clean with lots of amenities for daily base use. As I was there for business, a work desk was very helpful. However had some wi-fi issue during my stay but Manager got it fixed and was able to use it at no futher problem. Bar and restaurant  on promises was nice addition. They are in process of some renovations, and i look forward seeing more. Again, wants to mention that Clarion have very helpful staff and i would definitely come back when i am in townMoreShow less</t>
+  </si>
+  <si>
+    <t>After reading all reviews, i decided to try out Clarion Inn as my stay for business. It is reasonable. My first impression was welcoming lobby and friendly staff. Looks very new. I had few requests for my stay and they were on top of it. I found my room very clean with lots of amenities for daily base use. As I was there for business, a work desk was very helpful. However had some wi-fi issue during my stay but Manager got it fixed and was able to use it at no futher problem. Bar and restaurant  on promises was nice addition. They are in process of some renovations, and i look forward seeing more. Again, wants to mention that Clarion have very helpful staff and i would definitely come back when i am in townMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r284886681-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>284886681</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Cherotel became Clarion Inn -- Disappointed classmate friends</t>
+  </si>
+  <si>
+    <t>I reserved a block of rooms for attendees to our 55 year reunion.  I got back bad reviews from multiple people who had followed my advice and stayed there.  Main complaints were that the rooms were not clean, had a musty odor, and that they only had maid service every other day (this was not disclosed to me or to my classmates before check-in)</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r269592997-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>269592997</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The room was clean clean and spacious. Bed is a bit hard and you can feel the coils. My husband liked it but I don't. I like the place despite the construction. Front desk lady focused on messaging a friend #smh Management may want to look into that... It was quite rude. Since they accepted pets to stay, I had a fear that this may be a stinky room but that is not the case. I did not smell one thing that would elude to that.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r264954392-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>264954392</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>134.45 for a Friday night....</t>
+  </si>
+  <si>
+    <t>It's a Clarion Inn with the Choice Hotels family.  The lobby area and all that look great, but in the room, the bathroom and towels reminded me of a 40 dollar place. While the room is big,  besides the bed it had 9 nay the TV cabinet and a desk with the same chair I got from the big club store. Just thought I'd try something new coming here, but for the price I'll go down the street to where I know there's a comfortable chair to sit in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r262769807-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>262769807</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>DONT STAY HERE!</t>
+  </si>
+  <si>
+    <t>I came to Lake Jackson with my husband and baby to visit a family member. As soon as we entered our room I felt like the worlds worst mother as I didn't feel it would be safe for my baby to sleep in such an envoirnment. The room smelt of mold and urine. We were not able to change our room and everything had to go through the owners who were never to be seen.  We stayed two nights. Since we originally were booked for a week, we were givn a weekly rate. When we left we were charged an additional $40/night as this was the standard nightly rate. This place has now become a Clarion Hotel. I do not understand how they past inspection. I suspect there is harmful mold under those carpets. Lake Jackson is a humid place and with no ventilation in the bathrooms and with windows tht can't open, it is the perfect enviornment for mold growth. I was told those carpets are original from the 1970's. I do not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I came to Lake Jackson with my husband and baby to visit a family member. As soon as we entered our room I felt like the worlds worst mother as I didn't feel it would be safe for my baby to sleep in such an envoirnment. The room smelt of mold and urine. We were not able to change our room and everything had to go through the owners who were never to be seen.  We stayed two nights. Since we originally were booked for a week, we were givn a weekly rate. When we left we were charged an additional $40/night as this was the standard nightly rate. This place has now become a Clarion Hotel. I do not understand how they past inspection. I suspect there is harmful mold under those carpets. Lake Jackson is a humid place and with no ventilation in the bathrooms and with windows tht can't open, it is the perfect enviornment for mold growth. I was told those carpets are original from the 1970's. I do not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r257107551-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>257107551</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Very decent place to stay for the price.</t>
+  </si>
+  <si>
+    <t>This place is pretty nice. Many people who work in Freeport stay in it long term (like ourselves). We stayed for a few weeks and didn't really have many problems. The only thing is that there is a bar in the lobby which could get pretty loud and rowdy late at night. Also, our toilet started leaking water. It was coming out of the wall behind it.. The maintenance man was out of town so they moved us to a different room the next morning. The housekeepers wanted us out so they could clean and kept knocking on the door over and over.. Literally like 7 times. Mind you we have a 2 year old and a small infant only a couple of months old and we are trying to move all of our stuff... I ended up telling the head lady who was rude to me to back off and we would be done when we got done. Anyway, the other hotels in town that were cheaper were (literally) roach motels!! The nicer ones were waaaayy more expensive. So we settled for this one and we were satisfied. The Picket Fence restaurant located inside the hotel was very convenient and always delicious. We would stay here again if we needed to.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is pretty nice. Many people who work in Freeport stay in it long term (like ourselves). We stayed for a few weeks and didn't really have many problems. The only thing is that there is a bar in the lobby which could get pretty loud and rowdy late at night. Also, our toilet started leaking water. It was coming out of the wall behind it.. The maintenance man was out of town so they moved us to a different room the next morning. The housekeepers wanted us out so they could clean and kept knocking on the door over and over.. Literally like 7 times. Mind you we have a 2 year old and a small infant only a couple of months old and we are trying to move all of our stuff... I ended up telling the head lady who was rude to me to back off and we would be done when we got done. Anyway, the other hotels in town that were cheaper were (literally) roach motels!! The nicer ones were waaaayy more expensive. So we settled for this one and we were satisfied. The Picket Fence restaurant located inside the hotel was very convenient and always delicious. We would stay here again if we needed to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r254824919-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>254824919</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>One night only</t>
+  </si>
+  <si>
+    <t>Stayed one night while on business. I must say that this place is very rundown. Starting with the carpet on the main stairs which is thread bare st best. The pattern is no longer visible in most areas. The room was of s nice size eben had a small kitchen. However in the morning the handle for the shower come off in my hand while adjusting the water temperature. Overall I would say that this place is seen it's last days. It maybe nice for a quick overnight stay bit I would check the room before I decided to stay.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r252076427-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>252076427</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>Keep looking</t>
+  </si>
+  <si>
+    <t>We didn't enjoy our stay. We were trying to sleep around 1am when I heard loud voices yelling across the indoor courtyard. I walked out of the room and over to the front desk to see what the problem was. There were two families that appeared to have just check-ed i. I didn't understand the language they were using so not sure what they were yelling about. The sad thing is the front desk clerk never tried to get them to be quiet while I was there. I asked one lady to be quiet, but it didn't work for long. The ice machine is was sent to by the front desk was broken. It looked like it hadn't worked in a while. Our room was very spacious, but the bathroom felt tiny and it clearly needed some mildew scum remover. The breakfast did include eggs, bacon, and waffles. However, the taste wasn't that good. The waffles didn't have syrup. The bagels didn't have cream cheese. Inside the hotel had a strange musty smell to it. Also our room had a strange oder to it. I think this hotel may have been a top of the line hotel 40 years ago, but not anymore. Spend a little bit extra money and find something else.I did like the pool table and bar inside the hotel. The bed was comfortable and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We didn't enjoy our stay. We were trying to sleep around 1am when I heard loud voices yelling across the indoor courtyard. I walked out of the room and over to the front desk to see what the problem was. There were two families that appeared to have just check-ed i. I didn't understand the language they were using so not sure what they were yelling about. The sad thing is the front desk clerk never tried to get them to be quiet while I was there. I asked one lady to be quiet, but it didn't work for long. The ice machine is was sent to by the front desk was broken. It looked like it hadn't worked in a while. Our room was very spacious, but the bathroom felt tiny and it clearly needed some mildew scum remover. The breakfast did include eggs, bacon, and waffles. However, the taste wasn't that good. The waffles didn't have syrup. The bagels didn't have cream cheese. Inside the hotel had a strange musty smell to it. Also our room had a strange oder to it. I think this hotel may have been a top of the line hotel 40 years ago, but not anymore. Spend a little bit extra money and find something else.I did like the pool table and bar inside the hotel. The bed was comfortable and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r240275100-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>240275100</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Worth staying</t>
+  </si>
+  <si>
+    <t>Rooms were very clean, beds were comfortable, bathroom look bit old but overall everything was nice and clean. The staff was very nice and friendly and helped with everything I had question with.  Breakfast was good as well, great food to start your morning with. Will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r236371067-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>236371067</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room had an odor when you walked in. The carpet was damp and the bathroom had little spider mites of some sort in the sink when we got up the next morning. The towels were cheap and scratchy and so was the toilet paper. The breakfast was the same quality as the rest of the place. The place has seen its days and the updates are cheaply done. Wanted to cancel but was obligated with your site. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r233762721-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>233762721</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>FABULOUS &amp; Pet Friendly!</t>
+  </si>
+  <si>
+    <t>I came into town this weekend for the CPRA Rodeo Finals in Angleton, TX. Everything was booked solid. I looked into hotels in Lake Jackson, TX. The CHEROTEL Hotel had horrible reviews!  I had no other option so I booked my 2 rooms. Upon arrival I was completely BLOWN AWAY!!!  You walk into a wide open area with a RUNNING WATERFALL then I looked to the left and they had a BAR open from 5:30-Midnight.  Several large oversized couches and chairs were around the downstairs area and waterfall. They serve up a large HOT breakfast in the mornings. They had an elevator to the 2nd floor WOW... I can not even describe it. The ladies at the front desk were friendly, professional and just sweet!!!  This CHEROTEL HOTEL was recently redone. AMAZINGLY HAPPY!Another words FORGET about reviews and judge for yourself!  Lol... Didn't we all learn this in kindergarden. Blessings to ALLMoreShow less</t>
+  </si>
+  <si>
+    <t>I came into town this weekend for the CPRA Rodeo Finals in Angleton, TX. Everything was booked solid. I looked into hotels in Lake Jackson, TX. The CHEROTEL Hotel had horrible reviews!  I had no other option so I booked my 2 rooms. Upon arrival I was completely BLOWN AWAY!!!  You walk into a wide open area with a RUNNING WATERFALL then I looked to the left and they had a BAR open from 5:30-Midnight.  Several large oversized couches and chairs were around the downstairs area and waterfall. They serve up a large HOT breakfast in the mornings. They had an elevator to the 2nd floor WOW... I can not even describe it. The ladies at the front desk were friendly, professional and just sweet!!!  This CHEROTEL HOTEL was recently redone. AMAZINGLY HAPPY!Another words FORGET about reviews and judge for yourself!  Lol... Didn't we all learn this in kindergarden. Blessings to ALLMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r217447356-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>217447356</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Thumbs Up</t>
+  </si>
+  <si>
+    <t>I recently stayed at the hotel for Business. The staff was  awesome. The room was large and the beds were extremely comfortable. The hotel have wi-fi  pool an restaurant with a bar. Plenty of fast-food places within walking distance. I recommend this hotel because of the great rooms an staff.Thumbs up to the Cherotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>jack c, Manager at Clarion Inn, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at the hotel for Business. The staff was  awesome. The room was large and the beds were extremely comfortable. The hotel have wi-fi  pool an restaurant with a bar. Plenty of fast-food places within walking distance. I recommend this hotel because of the great rooms an staff.Thumbs up to the Cherotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r217019440-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>217019440</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Great Price and Service</t>
+  </si>
+  <si>
+    <t>I saw the reviews and was skeptical about staying, so I decided to drive down and check out the hotels out myself. There were other customers having issues with thier room when I arrived, such as room key issues, room not what they expected, and someone actually in their room, so I'm sure they will a totally different review as me, but my room looked great and breakfast was great as well. The bed wasnt hard, sheets didnt have holes, nor did the air smell musty. I advise you, if you have time and it isnt a busy weekend to check out the hotels before you book one based on a review. Reviews are simple people giving you their side of how their encounter went with a hotel...it may not be the same for you. I also loved it was the only hotel on the block that gave us a 6pm checkout for $30 instead of booking an extra night. Our trip was last minute to see my husband for his birthday and he works in Freeport. The location was great for us. The breakfast was also great. I enjoyed the Texas shaped waffles. The staff was more than accomadating as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>jack c, Manager at Clarion Inn, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>I saw the reviews and was skeptical about staying, so I decided to drive down and check out the hotels out myself. There were other customers having issues with thier room when I arrived, such as room key issues, room not what they expected, and someone actually in their room, so I'm sure they will a totally different review as me, but my room looked great and breakfast was great as well. The bed wasnt hard, sheets didnt have holes, nor did the air smell musty. I advise you, if you have time and it isnt a busy weekend to check out the hotels before you book one based on a review. Reviews are simple people giving you their side of how their encounter went with a hotel...it may not be the same for you. I also loved it was the only hotel on the block that gave us a 6pm checkout for $30 instead of booking an extra night. Our trip was last minute to see my husband for his birthday and he works in Freeport. The location was great for us. The breakfast was also great. I enjoyed the Texas shaped waffles. The staff was more than accomadating as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r215144794-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>215144794</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Knock it down</t>
+  </si>
+  <si>
+    <t>Old smell everywhere especially in the elevator. Bugs in room, holes in sheets, bathroom clean but looked terrible, and if you are 5ft tall counters are great. Toilet and counters are child height.  Never again will I stay here. Baymont down the street is 1000 times better and more comfortable.  By the way the beds at the cher are hard as concrete MoreShow less</t>
+  </si>
+  <si>
+    <t>Old smell everywhere especially in the elevator. Bugs in room, holes in sheets, bathroom clean but looked terrible, and if you are 5ft tall counters are great. Toilet and counters are child height.  Never again will I stay here. Baymont down the street is 1000 times better and more comfortable.  By the way the beds at the cher are hard as concrete More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r213939951-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>213939951</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Place has seen better days</t>
+  </si>
+  <si>
+    <t>Hotel has a very nice lobby in keeping with the "Grand" in its advertised name. Also, it is in a convenient location, easy to get to. And the price was reasonable.However, in terms of maintenance it has seen better days. Room had a disinfectant smell when we arrived. Breakfast was OK, but essential stuff like milk was not there (or not replenished).  Wear and tear on the furniture/bathroom sink was obvious.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r211048886-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>211048886</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Damp smelly rooms, no ventilation,terrible WiFi</t>
+  </si>
+  <si>
+    <t>I've been here for work four times now.When you get a room on ground level, you can expect to stay in some very bad, thick air. The rooms have no windows, just a tiny ventilation hatch in the bathroom that doesn't exchange any air.It's very unpleasant. Probably because of the dampness there are tiny insects, that look like spiders that you can see running over the surfaces of the furniture in a silver fish manner.It was the same all the four times that I stayed in this place. Sometimes the toilet or shower wasnt working properly. The WiFi was in addition to the poor signal strength (you might have to sit on the floor just behind your door to get a strong enough signal with your phone) very unstable or sometimes gone at all. When I informed the staff that it's not working anymore and a reset might be needed, they didn't show any interest in the situation not they tried to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>jack c, Manager at Clarion Inn, responded to this reviewResponded July 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2014</t>
+  </si>
+  <si>
+    <t>I've been here for work four times now.When you get a room on ground level, you can expect to stay in some very bad, thick air. The rooms have no windows, just a tiny ventilation hatch in the bathroom that doesn't exchange any air.It's very unpleasant. Probably because of the dampness there are tiny insects, that look like spiders that you can see running over the surfaces of the furniture in a silver fish manner.It was the same all the four times that I stayed in this place. Sometimes the toilet or shower wasnt working properly. The WiFi was in addition to the poor signal strength (you might have to sit on the floor just behind your door to get a strong enough signal with your phone) very unstable or sometimes gone at all. When I informed the staff that it's not working anymore and a reset might be needed, they didn't show any interest in the situation not they tried to help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r209151094-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>209151094</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>BEST REST</t>
+  </si>
+  <si>
+    <t>I love this hotel!!  if you need get away and you going to lake Jackson, tx this is the hotel you wanna stay at. Its peace and quiet, I got best sleep on my life. they have wonderful staff and service.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I love this hotel!!  if you need get away and you going to lake Jackson, tx this is the hotel you wanna stay at. Its peace and quiet, I got best sleep on my life. they have wonderful staff and service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r196943727-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>196943727</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>Where to begin.  Stayed here a few years ago on business and it was cute.  Now filthy, noisy, holes in bed sheets.  Staff apathetic and incompetent.  Shower head broken.  Construction makes lobby impassable, with no attempt to clear debris at the end of the day.  Dangerous trip hazards.  Strong fumes throughout hotel of floor adhesive from construction and marijuana. Would NEVER stay here again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r196177659-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>196177659</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>This good reviews SHOCK me</t>
+  </si>
+  <si>
+    <t>If you’re from a big city or a nice suburb then this place will disappoint you. It is a typical small city, hole in the wall hotel that is in desperate need of renovation, love, and care. If this hotel is your only option then make sure you request a room on the 2nd floor on the opposite side of the bar. Also make sure to request that you have a fully working shower. 
+I stayed in March of 2014 and I don't plan on staying there again. I stayed in the Jacuzzi room, which had a conjoined room with a bed in it. The Jacuzzi was nice. No complaints there. Each room had its own bathroom. In room 104 the “rainfall shower head” didn’t work at all, so a bath was the only option. The bathroom sink did not have a stopper and the plug was down, so all it did was fill up and retain water. The shower stopper in 105 that you pull up on to get the tub water to stop only went up half way. So I guess you could say the shower “worked”, but half of the water was pouring out into the tub and the rest from the shower head, which meant the bathtub filled with water. Both TV’s were old and kind of fuzzy. The comforter on my bed had three huge stains on it. Awesome to look at. The “hot” breakfast...If you’re from a big city or a nice suburb then this place will disappoint you. It is a typical small city, hole in the wall hotel that is in desperate need of renovation, love, and care. If this hotel is your only option then make sure you request a room on the 2nd floor on the opposite side of the bar. Also make sure to request that you have a fully working shower. I stayed in March of 2014 and I don't plan on staying there again. I stayed in the Jacuzzi room, which had a conjoined room with a bed in it. The Jacuzzi was nice. No complaints there. Each room had its own bathroom. In room 104 the “rainfall shower head” didn’t work at all, so a bath was the only option. The bathroom sink did not have a stopper and the plug was down, so all it did was fill up and retain water. The shower stopper in 105 that you pull up on to get the tub water to stop only went up half way. So I guess you could say the shower “worked”, but half of the water was pouring out into the tub and the rest from the shower head, which meant the bathtub filled with water. Both TV’s were old and kind of fuzzy. The comforter on my bed had three huge stains on it. Awesome to look at. The “hot” breakfast was unfortunate. The sausage and eggs did not look like real sausage and eggs, so I ate cereal and a bagel. The layout is odd. It’s like a large triangle and the rooms are against the sides of the triangle leaving this huge open space in the middle. I mean, it’s odd how much space they are wasting. There are “kid-free” areas… in the middle of the hotel. It is a bar/restaurant and since it’s poorly located, you can hear everything. Well, that and the fact that the walls are paper thin. I could literally look out of my door hole and see the bar. It was 10 steps from my room. Oh! They have a piano that is conveniently placed outside of the bar- between my room and the bar is more like it. And yes, that area is open until midnight, so if you have kids or want to sleep, it’s not happening until after mid night. I only interacted with 2 staff. The first was when I checked in... She didn't even smile. The second was the night front desk staff. She was wonderful, polite, and very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>If you’re from a big city or a nice suburb then this place will disappoint you. It is a typical small city, hole in the wall hotel that is in desperate need of renovation, love, and care. If this hotel is your only option then make sure you request a room on the 2nd floor on the opposite side of the bar. Also make sure to request that you have a fully working shower. 
+I stayed in March of 2014 and I don't plan on staying there again. I stayed in the Jacuzzi room, which had a conjoined room with a bed in it. The Jacuzzi was nice. No complaints there. Each room had its own bathroom. In room 104 the “rainfall shower head” didn’t work at all, so a bath was the only option. The bathroom sink did not have a stopper and the plug was down, so all it did was fill up and retain water. The shower stopper in 105 that you pull up on to get the tub water to stop only went up half way. So I guess you could say the shower “worked”, but half of the water was pouring out into the tub and the rest from the shower head, which meant the bathtub filled with water. Both TV’s were old and kind of fuzzy. The comforter on my bed had three huge stains on it. Awesome to look at. The “hot” breakfast...If you’re from a big city or a nice suburb then this place will disappoint you. It is a typical small city, hole in the wall hotel that is in desperate need of renovation, love, and care. If this hotel is your only option then make sure you request a room on the 2nd floor on the opposite side of the bar. Also make sure to request that you have a fully working shower. I stayed in March of 2014 and I don't plan on staying there again. I stayed in the Jacuzzi room, which had a conjoined room with a bed in it. The Jacuzzi was nice. No complaints there. Each room had its own bathroom. In room 104 the “rainfall shower head” didn’t work at all, so a bath was the only option. The bathroom sink did not have a stopper and the plug was down, so all it did was fill up and retain water. The shower stopper in 105 that you pull up on to get the tub water to stop only went up half way. So I guess you could say the shower “worked”, but half of the water was pouring out into the tub and the rest from the shower head, which meant the bathtub filled with water. Both TV’s were old and kind of fuzzy. The comforter on my bed had three huge stains on it. Awesome to look at. The “hot” breakfast was unfortunate. The sausage and eggs did not look like real sausage and eggs, so I ate cereal and a bagel. The layout is odd. It’s like a large triangle and the rooms are against the sides of the triangle leaving this huge open space in the middle. I mean, it’s odd how much space they are wasting. There are “kid-free” areas… in the middle of the hotel. It is a bar/restaurant and since it’s poorly located, you can hear everything. Well, that and the fact that the walls are paper thin. I could literally look out of my door hole and see the bar. It was 10 steps from my room. Oh! They have a piano that is conveniently placed outside of the bar- between my room and the bar is more like it. And yes, that area is open until midnight, so if you have kids or want to sleep, it’s not happening until after mid night. I only interacted with 2 staff. The first was when I checked in... She didn't even smile. The second was the night front desk staff. She was wonderful, polite, and very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r195047744-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>195047744</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Are these earlier reviews staying in the same hotel ?</t>
+  </si>
+  <si>
+    <t>I have stayed twice each time for one night. If I can avoid staying here another night I will do. I know its only for the one night but there is a couple of basics that is irritating. The cooked breakfast in the morning is tragic and I would not recommend it to anyone. The key cards to open your door are very hit and miss and even with help from reception can take numerous attempts to get into the room, Once you are in the room the temperature seems hard to get right but the bed is good. Stay in a room near the bar and you suffer from noise. I might add that we take about 20 rooms at a time and the breakfast and doors keys are a common problem. On our last visit one occupant had to put with a barking dog next door that was constant and after banging on the door the conclusion was the dog was in the room on its ownMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I have stayed twice each time for one night. If I can avoid staying here another night I will do. I know its only for the one night but there is a couple of basics that is irritating. The cooked breakfast in the morning is tragic and I would not recommend it to anyone. The key cards to open your door are very hit and miss and even with help from reception can take numerous attempts to get into the room, Once you are in the room the temperature seems hard to get right but the bed is good. Stay in a room near the bar and you suffer from noise. I might add that we take about 20 rooms at a time and the breakfast and doors keys are a common problem. On our last visit one occupant had to put with a barking dog next door that was constant and after banging on the door the conclusion was the dog was in the room on its ownMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r171981219-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>171981219</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Family get together ... Came in from Florida to visit !!</t>
+  </si>
+  <si>
+    <t>We all enjoyed the stay at the hotel ... Very clean everyone was very nice ... We hung out at the bar area played pool listened to music !! The rooms were very cozy the view out the window was cool !! Had a nice quick breakfast before we headed out to the beach !!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r171970703-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>171970703</t>
+  </si>
+  <si>
+    <t>Really nice place... great people, good service!</t>
+  </si>
+  <si>
+    <t>Nice place to stay.. stayed for work had a great experince clean rooms reasonable prices.. staff was nice and helpful.. Bar was a nice place to unwind after work.. bartender Erica was Awesome made great drinks...did awesome tricks with shakers and bottles as she was making drinks! ;)like she should be in a club in Vegas!.. all and all nice place nice location and great rooms..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r171966001-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>171966001</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Our week long stay at the Cherotel Reception and Conference Center was excellent. The staff was accommodating and kind. The room was cleaned and plenty of towels were placed in the bathroom every day. There was also a  night when we came in late and the restaurant was a few minutes from closing. At the request of the cook we stayed and enjoyed a nice family meal. I would stay at the Hotel again and recommend it to family and friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r167640711-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>167640711</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>A Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>When you walk in the lobby the ambiance reminds you of rustic Texas with a breathtaking rock fountain in the center. This hotel is a far cry from the "Corporate" looking hotels. It is very clean, has friendly accomadating staff, quick convenient check in, and conveniently located to the gulf.The rooms are simple and clean, with a cool view of the spectacular lobby right outside your window.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r154401305-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>154401305</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>So glad we stayed here!!</t>
+  </si>
+  <si>
+    <t>My family stayed here 3 weeks due to remodeling our house. The staff was outstanding!!  All the employees were great!! The beds were new and so comfortable. The rooms are large with a microwave and fridge. Free WIFI and continental breakfast, a bar with pool tables-couldn't ask for more!! We weren't able to use the pool due to weather,  but it was beautiful!! We could have stayed at any hotel we wanted (I checked the "newer" ones) and the Cherotel was the best choice for us. I really can't complain about anything and will definitely refer friends here.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r152906767-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>152906767</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>A blast from the past</t>
+  </si>
+  <si>
+    <t>Our family with kids stayed 2 nights here, and chose this hotel because of the Trip Advisor #1 rating. I have to say I was really disappointed, and the first time I have not agreed with the ratings over the course of 3-4 years of travelling with TA's reviews. There are nicer and newer chain hotels in Lake Jackson (within the same half mile, same side of freeway) that I turned down, and wish I would have looked past their no free breakfasts and higher price instead of going with the Cherotel.The hotel is an old 70's conference center that hasn't been touched. The rooms are adequate, but old and worn looking. Clean towels, soap, toiletry items are provided, and there is a mini-fridge and microwave in every room. We borrowed a DVD player to use from the front desk with a $20 deposit (cash only) that was refundable upon return. The walls are thin, and good thing we travel with our kids' sound sleep machine. You can easily hear the adjacent room TV's, hall noise, and parking lot racket. The beds could use new mattresses.  Breakfast: free danishes, cereal varities, milk, coffee, juice, fruit cups, bagels, and the fixins in an unstaffed room with tables and chairs.Our family will chose a different hotel next time we're in town :(MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family with kids stayed 2 nights here, and chose this hotel because of the Trip Advisor #1 rating. I have to say I was really disappointed, and the first time I have not agreed with the ratings over the course of 3-4 years of travelling with TA's reviews. There are nicer and newer chain hotels in Lake Jackson (within the same half mile, same side of freeway) that I turned down, and wish I would have looked past their no free breakfasts and higher price instead of going with the Cherotel.The hotel is an old 70's conference center that hasn't been touched. The rooms are adequate, but old and worn looking. Clean towels, soap, toiletry items are provided, and there is a mini-fridge and microwave in every room. We borrowed a DVD player to use from the front desk with a $20 deposit (cash only) that was refundable upon return. The walls are thin, and good thing we travel with our kids' sound sleep machine. You can easily hear the adjacent room TV's, hall noise, and parking lot racket. The beds could use new mattresses.  Breakfast: free danishes, cereal varities, milk, coffee, juice, fruit cups, bagels, and the fixins in an unstaffed room with tables and chairs.Our family will chose a different hotel next time we're in town :(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r137892108-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>137892108</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>Texas wedding with an international twist</t>
+  </si>
+  <si>
+    <t>I would like to make a great thank you to the staff at the Cherotel. My husband who is from Texas and myself being a Norwegain - had the time of our lives spending the reception and the wedding night at the hotel. We had many international guests and they all had a great time. The location to the city and surrounding areas for dining and shopping was great! Erica, and Bud and your team - Thank you for making our best day. The food was great - the Texian where we had our dinner and dance was nicely decorated and you exceed all our expectations for a wonderful and joyful evening. You were always present if needed and there was nothing you would not do for us. We will definately come back for another occation and I hope freinds will use your locations in the future. Happy greetings from half way round the world on the other side.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I would like to make a great thank you to the staff at the Cherotel. My husband who is from Texas and myself being a Norwegain - had the time of our lives spending the reception and the wedding night at the hotel. We had many international guests and they all had a great time. The location to the city and surrounding areas for dining and shopping was great! Erica, and Bud and your team - Thank you for making our best day. The food was great - the Texian where we had our dinner and dance was nicely decorated and you exceed all our expectations for a wonderful and joyful evening. You were always present if needed and there was nothing you would not do for us. We will definately come back for another occation and I hope freinds will use your locations in the future. Happy greetings from half way round the world on the other side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r137833274-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>137833274</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Fun girls trip</t>
+  </si>
+  <si>
+    <t>I met some girlfriends at the CherHotel for a long weekend. It has a great location to go to the beach. The staff was very friendly and helpful. Very reasonably priced. Would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r137811825-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>137811825</t>
+  </si>
+  <si>
+    <t>Great Hotel Value</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the CherHotel for my birthday August 9th. ,2012, We look forward to staying there many more times , our room was really nice and the staff were great! ,and  the Price Was Nice ! I will ask for my old room too. Thanks Staff , Julia from Kerrville TX.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r136558334-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>136558334</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>Incredible service in excellent location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at the Cher on business. The staff was incredibly helpful and friendly. Having attended a conference in this hotel a year ago, I immediately noticed a vast improvement in both facilities and morale of the staff. The new owner was attentive to patrons and very engaged in the employee's and client's needs. He has implemented many improvements since my previous stay and, after visiting with him and his staff, I'm impressed with his passion for service and his vision for the Cherotel and Lake Jackson. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r136012268-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>136012268</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Stay here!!</t>
+  </si>
+  <si>
+    <t>We had a wonderful stay at the Cherotel!  Lake Jackson is a beautiful city.  The beach is very close, clean &amp; not too crowded.  When we were not in the mood for the beach, the hotel pool was beautiful, covered &amp; shaded with a waterfall.  The hotel provided a nice breakfast &amp; the staff was very friendly.  The beds were sooooo comfortable!  We cannot wait to go back.  This will be an annual trip for us from now on!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r135886330-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>135886330</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Hidden Gem!!!</t>
+  </si>
+  <si>
+    <t>This hotel was very clean, the staff was very friendly, and it was very conveniently located.  Its only about 10 minutes to the best beach in Texas.   The pool is also very relaxing.  We will be staying here again very soon.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r134744944-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>134744944</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>GREAT PLACE :D</t>
+  </si>
+  <si>
+    <t>I love this place! I was planning my wedding from December 2011 to May 2012. The event manager  Erica and the owner Bud was very helpful and sweet threwout the whole process. I had my wedding at the altrum room every dime and penny so worth that beautiful room. Everyone told me it was the most beautiful wedding they had ever seen. I even got to set up 3 days prior to my wedding, which btw no where in this area lets you do that!! They made alot of accommodations for me from making sure no one walked threw my wedding and taking back the lines from my wedding etc.... probably to many to list. lol.. On the day of my wedding everything went very smooth. Rooms for my husband and I were seperated so we didn't see each other. They were very clean and I loved the room for us which was the suite :). Food was wonderful  &amp; hot we got the chicken and beef fajitas with rice and beans. The staff on the day of the wedding was very prepared and presentation overall was outstanding. I would recommend everyone to get married here. I enjoyed my night stay as well. This hotel is the best in Lake Jackson!! :)THANK YOU TO EVERYONE AT THE CHER HOTEL WHO WAS IN MY WEDDING!MoreShow less</t>
+  </si>
+  <si>
+    <t>I love this place! I was planning my wedding from December 2011 to May 2012. The event manager  Erica and the owner Bud was very helpful and sweet threwout the whole process. I had my wedding at the altrum room every dime and penny so worth that beautiful room. Everyone told me it was the most beautiful wedding they had ever seen. I even got to set up 3 days prior to my wedding, which btw no where in this area lets you do that!! They made alot of accommodations for me from making sure no one walked threw my wedding and taking back the lines from my wedding etc.... probably to many to list. lol.. On the day of my wedding everything went very smooth. Rooms for my husband and I were seperated so we didn't see each other. They were very clean and I loved the room for us which was the suite :). Food was wonderful  &amp; hot we got the chicken and beef fajitas with rice and beans. The staff on the day of the wedding was very prepared and presentation overall was outstanding. I would recommend everyone to get married here. I enjoyed my night stay as well. This hotel is the best in Lake Jackson!! :)THANK YOU TO EVERYONE AT THE CHER HOTEL WHO WAS IN MY WEDDING!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r134019338-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>134019338</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Family beach vacation</t>
+  </si>
+  <si>
+    <t>We had a wonderful experience staying at the Cherotel in Lake Jackson.  It was a family vacation trip for us.  The rooms were clean and comfortable, the staff friendly, complimentary breakfast was nice, and the pool was a hit with our two young sons.  Best of all, and the reason for our trip, we were just minutes away from the beach. The Cherotel is a nice, family-friendly place stay if you are looking for a location close to the beach.  We will definitely stay there for our next beach vacation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r133842145-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>133842145</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>This hotel is is serious need of a makeover, The rooms were tired and our upgrade to a deluxe room was a king size mattress laid on top of the existing double bed and mattress. I needed a running jump to get into bed! The carpet felt tacky and the room smelled musty.The breakfast was very limited. We had driven from DC to a wedding here and it was one of the poorest places we stayed in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r128281352-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>128281352</t>
+  </si>
+  <si>
+    <t>04/21/2012</t>
+  </si>
+  <si>
+    <t>Goood if you like old and loud</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property. I rented the larger "Jacuzzi Suite", which consisted of two rooms, one with a king bed, fridge, microwave and the other an old couch and a 2 person garden style corner tub. The tub was in good shape and the jets worked ok, so I was pleased with it. The room was clean and the bed a typical hotel bed. There was no functional desk/work area, and I noted a few lap top users in the bar. I was not on business, so I don't know if there was wireless/wired internet. Nothing was advertised anywhere.
+I rented on a Friday night, but there were not many people on the property. Unfortunately, my room door (an interior door as all are in this hotel) was facing the bar. Yes, the bar is in an open atrium. They had a piano 5 FEET FROM MY DOOR. That's right. I could read the pianist's sheet music through my peep-hole!!! They played til about 8 pm, at which time I was able to start hearing my television. I was promised he'd stop playing by 7.... That piano should not have been there at all. Sorry, you need a seperate bar for that, NOT A BAR OUTSIDE MY DOOR!
+Overall, the property felt old. And it smelt...like it had been flooded. Almost a moldy smell. The rooms have window unit A/Cs. Of course, you have to find a way...I recently stayed at this property. I rented the larger "Jacuzzi Suite", which consisted of two rooms, one with a king bed, fridge, microwave and the other an old couch and a 2 person garden style corner tub. The tub was in good shape and the jets worked ok, so I was pleased with it. The room was clean and the bed a typical hotel bed. There was no functional desk/work area, and I noted a few lap top users in the bar. I was not on business, so I don't know if there was wireless/wired internet. Nothing was advertised anywhere.I rented on a Friday night, but there were not many people on the property. Unfortunately, my room door (an interior door as all are in this hotel) was facing the bar. Yes, the bar is in an open atrium. They had a piano 5 FEET FROM MY DOOR. That's right. I could read the pianist's sheet music through my peep-hole!!! They played til about 8 pm, at which time I was able to start hearing my television. I was promised he'd stop playing by 7.... That piano should not have been there at all. Sorry, you need a seperate bar for that, NOT A BAR OUTSIDE MY DOOR!Overall, the property felt old. And it smelt...like it had been flooded. Almost a moldy smell. The rooms have window unit A/Cs. Of course, you have to find a way to pin back the drapes to allow the air to enter the room or you'll be keep your window cool all night. There were no hotel information cards or booklets: nothing to tell you what the property had or offered. The desk told me 0 on check in. Ask about everything. Evidently, they had a breakfast bar which was not advertised to me until after I went to a local restaurant.There was only one working ice machine...of course, it was on the second floor.The staff didn't seem concerned about the piano issue. I spoke again to the front during checkout, but their attitude was more like "Well, we already got your money, so we don't really care". I did find out there was an ownership change in October 2011, so maybe there are some transitional issues still. There are numerous newer and/or cheaper properties in the Clute/Lake Jackson area. I believe this property USED to have a restaurant and room service, but they do not anymore. So, there is really no reason not to go to a newer, modern property like a Comfort Suites or a Hampton Inn in town. I will not stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property. I rented the larger "Jacuzzi Suite", which consisted of two rooms, one with a king bed, fridge, microwave and the other an old couch and a 2 person garden style corner tub. The tub was in good shape and the jets worked ok, so I was pleased with it. The room was clean and the bed a typical hotel bed. There was no functional desk/work area, and I noted a few lap top users in the bar. I was not on business, so I don't know if there was wireless/wired internet. Nothing was advertised anywhere.
+I rented on a Friday night, but there were not many people on the property. Unfortunately, my room door (an interior door as all are in this hotel) was facing the bar. Yes, the bar is in an open atrium. They had a piano 5 FEET FROM MY DOOR. That's right. I could read the pianist's sheet music through my peep-hole!!! They played til about 8 pm, at which time I was able to start hearing my television. I was promised he'd stop playing by 7.... That piano should not have been there at all. Sorry, you need a seperate bar for that, NOT A BAR OUTSIDE MY DOOR!
+Overall, the property felt old. And it smelt...like it had been flooded. Almost a moldy smell. The rooms have window unit A/Cs. Of course, you have to find a way...I recently stayed at this property. I rented the larger "Jacuzzi Suite", which consisted of two rooms, one with a king bed, fridge, microwave and the other an old couch and a 2 person garden style corner tub. The tub was in good shape and the jets worked ok, so I was pleased with it. The room was clean and the bed a typical hotel bed. There was no functional desk/work area, and I noted a few lap top users in the bar. I was not on business, so I don't know if there was wireless/wired internet. Nothing was advertised anywhere.I rented on a Friday night, but there were not many people on the property. Unfortunately, my room door (an interior door as all are in this hotel) was facing the bar. Yes, the bar is in an open atrium. They had a piano 5 FEET FROM MY DOOR. That's right. I could read the pianist's sheet music through my peep-hole!!! They played til about 8 pm, at which time I was able to start hearing my television. I was promised he'd stop playing by 7.... That piano should not have been there at all. Sorry, you need a seperate bar for that, NOT A BAR OUTSIDE MY DOOR!Overall, the property felt old. And it smelt...like it had been flooded. Almost a moldy smell. The rooms have window unit A/Cs. Of course, you have to find a way to pin back the drapes to allow the air to enter the room or you'll be keep your window cool all night. There were no hotel information cards or booklets: nothing to tell you what the property had or offered. The desk told me 0 on check in. Ask about everything. Evidently, they had a breakfast bar which was not advertised to me until after I went to a local restaurant.There was only one working ice machine...of course, it was on the second floor.The staff didn't seem concerned about the piano issue. I spoke again to the front during checkout, but their attitude was more like "Well, we already got your money, so we don't really care". I did find out there was an ownership change in October 2011, so maybe there are some transitional issues still. There are numerous newer and/or cheaper properties in the Clute/Lake Jackson area. I believe this property USED to have a restaurant and room service, but they do not anymore. So, there is really no reason not to go to a newer, modern property like a Comfort Suites or a Hampton Inn in town. I will not stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r125008297-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>125008297</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights in a clean room at a good price, everything was pretty perfect. We enjoyed the featured couple who sang songs for a couple of hours in the restaurant. Everyone was very nice to us and helpful when we needed it. We definitely will be back.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r122183273-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>122183273</t>
+  </si>
+  <si>
+    <t>12/28/2011</t>
+  </si>
+  <si>
+    <t>It was very good.  And staff were the best</t>
+  </si>
+  <si>
+    <t>Our entire extended family stayed there for 3 nights during the holidays.  4 rooms and one suite.  It could not have been nicer for the price.  They gave us free upgrades for calling on the phone.    It had a great lobby atrium that we used a couple of times to all sit and chat.  The rooms were very clean and had a large flat screen tv. I personally chatted with four different front desk staff and all were very nice and eager to do anything extra that we needed for pillows or rollaways.   The breakfast was ample but not hot except for the danishes.  The beds were very comfortable.   The bar was great and the food items on the restaurant menu were family priced.  We will be back and booked more rooms for the summer for a family reunion.   I saw the 49 dollar rooms that are reserved for contractors and don't think they are family friendly.  It was well worth 10 bucks more for the executive rooms and amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Our entire extended family stayed there for 3 nights during the holidays.  4 rooms and one suite.  It could not have been nicer for the price.  They gave us free upgrades for calling on the phone.    It had a great lobby atrium that we used a couple of times to all sit and chat.  The rooms were very clean and had a large flat screen tv. I personally chatted with four different front desk staff and all were very nice and eager to do anything extra that we needed for pillows or rollaways.   The breakfast was ample but not hot except for the danishes.  The beds were very comfortable.   The bar was great and the food items on the restaurant menu were family priced.  We will be back and booked more rooms for the summer for a family reunion.   I saw the 49 dollar rooms that are reserved for contractors and don't think they are family friendly.  It was well worth 10 bucks more for the executive rooms and amenities.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1675,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1707,3859 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>109</v>
+      </c>
+      <c r="X16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>109</v>
+      </c>
+      <c r="X17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>163</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>164</v>
+      </c>
+      <c r="X19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>178</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>178</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" t="s">
+        <v>163</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>201</v>
+      </c>
+      <c r="O27" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>244</v>
+      </c>
+      <c r="O32" t="s">
+        <v>94</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>262</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>263</v>
+      </c>
+      <c r="X35" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>163</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>271</v>
+      </c>
+      <c r="X36" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>275</v>
+      </c>
+      <c r="J37" t="s">
+        <v>276</v>
+      </c>
+      <c r="K37" t="s">
+        <v>277</v>
+      </c>
+      <c r="L37" t="s">
+        <v>278</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>271</v>
+      </c>
+      <c r="X37" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>281</v>
+      </c>
+      <c r="J38" t="s">
+        <v>282</v>
+      </c>
+      <c r="K38" t="s">
+        <v>283</v>
+      </c>
+      <c r="L38" t="s">
+        <v>284</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" t="s">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s">
+        <v>288</v>
+      </c>
+      <c r="L39" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>290</v>
+      </c>
+      <c r="X39" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>294</v>
+      </c>
+      <c r="J40" t="s">
+        <v>295</v>
+      </c>
+      <c r="K40" t="s">
+        <v>296</v>
+      </c>
+      <c r="L40" t="s">
+        <v>297</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>298</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>290</v>
+      </c>
+      <c r="X40" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J41" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" t="s">
+        <v>303</v>
+      </c>
+      <c r="L41" t="s">
+        <v>304</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>306</v>
+      </c>
+      <c r="J42" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s">
+        <v>309</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>310</v>
+      </c>
+      <c r="O42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>313</v>
+      </c>
+      <c r="J43" t="s">
+        <v>314</v>
+      </c>
+      <c r="K43" t="s">
+        <v>315</v>
+      </c>
+      <c r="L43" t="s">
+        <v>316</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>317</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s">
+        <v>322</v>
+      </c>
+      <c r="L44" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>324</v>
+      </c>
+      <c r="O44" t="s">
+        <v>75</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s">
+        <v>327</v>
+      </c>
+      <c r="L45" t="s">
+        <v>328</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>330</v>
+      </c>
+      <c r="J46" t="s">
+        <v>321</v>
+      </c>
+      <c r="K46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" t="s">
+        <v>332</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>324</v>
+      </c>
+      <c r="O46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>334</v>
+      </c>
+      <c r="J47" t="s">
+        <v>335</v>
+      </c>
+      <c r="K47" t="s">
+        <v>336</v>
+      </c>
+      <c r="L47" t="s">
+        <v>337</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>338</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>340</v>
+      </c>
+      <c r="J48" t="s">
+        <v>341</v>
+      </c>
+      <c r="K48" t="s">
+        <v>342</v>
+      </c>
+      <c r="L48" t="s">
+        <v>343</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>344</v>
+      </c>
+      <c r="O48" t="s">
+        <v>75</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>345</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" t="s">
+        <v>348</v>
+      </c>
+      <c r="L49" t="s">
+        <v>349</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>352</v>
+      </c>
+      <c r="J50" t="s">
+        <v>353</v>
+      </c>
+      <c r="K50" t="s">
+        <v>354</v>
+      </c>
+      <c r="L50" t="s">
+        <v>355</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>356</v>
+      </c>
+      <c r="O50" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>358</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>359</v>
+      </c>
+      <c r="J51" t="s">
+        <v>360</v>
+      </c>
+      <c r="K51" t="s">
+        <v>361</v>
+      </c>
+      <c r="L51" t="s">
+        <v>362</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>363</v>
+      </c>
+      <c r="O51" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>365</v>
+      </c>
+      <c r="J52" t="s">
+        <v>360</v>
+      </c>
+      <c r="K52" t="s">
+        <v>366</v>
+      </c>
+      <c r="L52" t="s">
+        <v>367</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>363</v>
+      </c>
+      <c r="O52" t="s">
+        <v>163</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>368</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" t="s">
+        <v>370</v>
+      </c>
+      <c r="K53" t="s">
+        <v>371</v>
+      </c>
+      <c r="L53" t="s">
+        <v>372</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>373</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>374</v>
+      </c>
+      <c r="J54" t="s">
+        <v>375</v>
+      </c>
+      <c r="K54" t="s">
+        <v>376</v>
+      </c>
+      <c r="L54" t="s">
+        <v>377</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>378</v>
+      </c>
+      <c r="O54" t="s">
+        <v>75</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>379</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>380</v>
+      </c>
+      <c r="J55" t="s">
+        <v>381</v>
+      </c>
+      <c r="K55" t="s">
+        <v>382</v>
+      </c>
+      <c r="L55" t="s">
+        <v>383</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>378</v>
+      </c>
+      <c r="O55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>385</v>
+      </c>
+      <c r="J56" t="s">
+        <v>386</v>
+      </c>
+      <c r="K56" t="s">
+        <v>387</v>
+      </c>
+      <c r="L56" t="s">
+        <v>388</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>356</v>
+      </c>
+      <c r="O56" t="s">
+        <v>163</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>390</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" t="s">
+        <v>392</v>
+      </c>
+      <c r="K57" t="s">
+        <v>393</v>
+      </c>
+      <c r="L57" t="s">
+        <v>394</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>378</v>
+      </c>
+      <c r="O57" t="s">
+        <v>75</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>395</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>396</v>
+      </c>
+      <c r="J58" t="s">
+        <v>397</v>
+      </c>
+      <c r="K58" t="s">
+        <v>398</v>
+      </c>
+      <c r="L58" t="s">
+        <v>399</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>356</v>
+      </c>
+      <c r="O58" t="s">
+        <v>163</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>400</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>401</v>
+      </c>
+      <c r="J59" t="s">
+        <v>402</v>
+      </c>
+      <c r="K59" t="s">
+        <v>403</v>
+      </c>
+      <c r="L59" t="s">
+        <v>404</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>405</v>
+      </c>
+      <c r="O59" t="s">
+        <v>94</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>407</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>408</v>
+      </c>
+      <c r="J60" t="s">
+        <v>409</v>
+      </c>
+      <c r="K60" t="s">
+        <v>410</v>
+      </c>
+      <c r="L60" t="s">
+        <v>411</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>412</v>
+      </c>
+      <c r="O60" t="s">
+        <v>163</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>413</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>414</v>
+      </c>
+      <c r="J61" t="s">
+        <v>415</v>
+      </c>
+      <c r="K61" t="s">
+        <v>416</v>
+      </c>
+      <c r="L61" t="s">
+        <v>417</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>418</v>
+      </c>
+      <c r="O61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_87.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_87.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="674">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r612371334-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>56123</t>
+  </si>
+  <si>
+    <t>106751</t>
+  </si>
+  <si>
+    <t>612371334</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Loved It!</t>
+  </si>
+  <si>
+    <t>The front lobby was really nice &amp; clean. It gave me the feeling of complete elegance. The staff members were kind. Made my accommodation feel personal. They have a restaurant that sells awesome food so we didn't even have to leave the hotel for much. The room was clean and comfortable. We ended up paying $5 for room service which was extra convenient. Although we didn't use the bar, the bar area appeared nice and relaxing. For breakfast they served REAL EGGS which was a plus. I look forward to bringing my family here again.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r610037899-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>610037899</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Clean and Friendly Staff</t>
+  </si>
+  <si>
+    <t>Older Hotel, but clean and comfortable. Would stay again. Rates are competitive. Full Breakfast with healthy and diverse choices. I would recommend if on a budget and if okay with a building with character.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r600897447-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>600897447</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>😒😳💀</t>
+  </si>
+  <si>
+    <t>This is the worst hotel ever! 2 minutes in the 1st room, my 4 year old daughter walks out of the bathroom with a pill found on the counter! Thank God i have taught her well or it would have been a family vacation gone bad! The room smelt horrible, old cheese wrappers were under pillows, a stash of old candy wrappers were under the bed, questionable objects were found as well. Very upset about the pill, i went to the front desk, the receptionist was NOT surprised about the pill situation, and just said she would give us a different room and call to see what could be done. Up to the 2nd room, there is a trail of blood on the carpet along with a funky smell covered by an air freshner..which did not work so well. Second room smelt better but still not pleasing. Pool was green and smelt stagnant, and not maintained. Staff didnt seem to care! I have much more to complain about but id rather enjoy the remainder of my vacation, as i am still awaiting a call back from a manager regarding the pill incident. DO NOT TRUST THE CLARION INN BEAUTIFULLY PHOTO SHOPPED PICTURES WHEN BROWSING FOR A HOTEL! 7/29/18MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>This is the worst hotel ever! 2 minutes in the 1st room, my 4 year old daughter walks out of the bathroom with a pill found on the counter! Thank God i have taught her well or it would have been a family vacation gone bad! The room smelt horrible, old cheese wrappers were under pillows, a stash of old candy wrappers were under the bed, questionable objects were found as well. Very upset about the pill, i went to the front desk, the receptionist was NOT surprised about the pill situation, and just said she would give us a different room and call to see what could be done. Up to the 2nd room, there is a trail of blood on the carpet along with a funky smell covered by an air freshner..which did not work so well. Second room smelt better but still not pleasing. Pool was green and smelt stagnant, and not maintained. Staff didnt seem to care! I have much more to complain about but id rather enjoy the remainder of my vacation, as i am still awaiting a call back from a manager regarding the pill incident. DO NOT TRUST THE CLARION INN BEAUTIFULLY PHOTO SHOPPED PICTURES WHEN BROWSING FOR A HOTEL! 7/29/18More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r576489828-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>576489828</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Comfortable, but uncomfortable</t>
+  </si>
+  <si>
+    <t>My wife and I came down for a getaway and should have noticed when we first got our room we weren't going to be comfortable. Our room was located on the 2nd floor overlooking the atrium. The elevator terrorized us! About halfway up the elevator shook violently and mad some horrible sounds. It took about 5 mins just for the elevator doors to open! We thought we were stuck in there and even feared that the car would fall to the ground. The room was very spacious and the bed was comfortable. The breakfast was good as well, but when we went outside in the morning police were on site for several vehicle break ins. Broken windows all over the parking lot. We cut our trip short after 1 night. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My wife and I came down for a getaway and should have noticed when we first got our room we weren't going to be comfortable. Our room was located on the 2nd floor overlooking the atrium. The elevator terrorized us! About halfway up the elevator shook violently and mad some horrible sounds. It took about 5 mins just for the elevator doors to open! We thought we were stuck in there and even feared that the car would fall to the ground. The room was very spacious and the bed was comfortable. The breakfast was good as well, but when we went outside in the morning police were on site for several vehicle break ins. Broken windows all over the parking lot. We cut our trip short after 1 night. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r565148861-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
-    <t>56123</t>
-  </si>
-  <si>
-    <t>106751</t>
-  </si>
-  <si>
     <t>565148861</t>
   </si>
   <si>
@@ -174,9 +258,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r562597392-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -207,6 +288,53 @@
     <t>Clarion chain should check out this location.  It looked pretty wonderful in the lobby, but once we walked down the stinky over-perfumed (causing questions, many questions) hallways, we knew something was not right.  We were so tired, we stayed but got out asap.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r534757314-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>534757314</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Worst Place I've Ever Been To.... Ever.</t>
+  </si>
+  <si>
+    <t>Where to begin.  
+Let me preface,  if you are on an extreme budget or crunch,  you can stay at this hotel..... I guess?. 
+The front staff is very pleasant with everyone I've met. I haven't had the pleasure of meeting the cleaning crew,  but I have little faith in them.  I don't want to solely blame them,  as typically in hotels,  they can only work with what they are given and hotel mgmt can be blind to what implications they cause by saving a nickel to maximize profits.  Or maybe it's the clientele (It appears many of the customers are residents &amp; have little regard for the place).  Who knows. 
+I should note that I'm not the customer that complains about a stain or slight funk in a hotel room.  So if you read this and think to yourself "oh, there is always SOMEONE that complains about everything", that's not me.  
+Lobby: the lobby and common areas seem decent.  Actually I was quite surprised when I walked in and saw a large atrium type common space with a water feature.  It had a slight odor to it,  I'm assuming it was a funk from the air conditioning.  Almost a mildew type smell covered by cinnamon.  Not terrible,  but definitely made me think the air quality wasn't the best.  As I walked down the hallway to my room the cinnamon became stronger and stronger  to the point where you could 'feel'...Where to begin.  Let me preface,  if you are on an extreme budget or crunch,  you can stay at this hotel..... I guess?. The front staff is very pleasant with everyone I've met. I haven't had the pleasure of meeting the cleaning crew,  but I have little faith in them.  I don't want to solely blame them,  as typically in hotels,  they can only work with what they are given and hotel mgmt can be blind to what implications they cause by saving a nickel to maximize profits.  Or maybe it's the clientele (It appears many of the customers are residents &amp; have little regard for the place).  Who knows. I should note that I'm not the customer that complains about a stain or slight funk in a hotel room.  So if you read this and think to yourself "oh, there is always SOMEONE that complains about everything", that's not me.  Lobby: the lobby and common areas seem decent.  Actually I was quite surprised when I walked in and saw a large atrium type common space with a water feature.  It had a slight odor to it,  I'm assuming it was a funk from the air conditioning.  Almost a mildew type smell covered by cinnamon.  Not terrible,  but definitely made me think the air quality wasn't the best.  As I walked down the hallway to my room the cinnamon became stronger and stronger  to the point where you could 'feel' it. Like the hallway air was as old as that one really old lady that everyone knows. Either it was an entire can of spray or what it seemed to me was,  a string candle from one of the rooms to mask another odor. Room 1: I used to work maintenance in the projects.  This room had many of the features I became accustomed to seeing in low low rent types of places.  I opened the door and I began coughing. The room had a VERY strong odor of mold and death (I've dealt with apartments in the past where people had passed away and not been reported for weeks,  so yes I literally mean death). It was unbearable.  I honestly was hesitant to put my bags down. Naturally,  I examined the room a bit and for sake of time and space will just list what I found here:  found my sheets to be stained,  pillows were yellowish,  mold on the walls in the room (not in the expected location,  the bathroom) along the door and randomly on the walls, enough hair to make a wig,  feces on the bathroom wall,  debris left on the bathroom floor (Little bits of toilet paper and a wrapper or two),  the air conditioner produced a putrid odor of mold,  carpets stained and not visibly vacuumed.  I wish i thought to take pictures of this room,  but i didn't. I chalked it up as house keeping failing to clean the room,  so I requested another room.  Room 2: 10x better than the previous,  but still very bad.  The death odor was not present,  but the mold/mildew odor was.  Floors were also not vacuumed,  pillows yellowish,  sheets not as stained, but still slightly, I could make a baby wig with the left over hair found on the floor, cabinets, nightstand, bathroom etc.  There was left over what I'm guessing is skin flakes on the night stand,  pretty sure an old blood stain on the carpet and stalactites growing on the bathroom ceiling. (See pictures). I had to stay the night,  so i took my shower.  I played a game of hot lava as i jumped from towel to towel because the bathroom floor had several stains/smudges of I'm not sure what on it.  Shower went well,  but my towels were less than white and felt grungy.  Felt like i needed a shower after i dried off.  I put my clothes on and went to bed,  but slept on the bed  over the covers with my clothes on. This may seem extreme,  but after my new pair of socks were brown from walking from the bathroom to the bed, I felt like it was the right thing to do.  I should note that the lock on the door seems pretty breakable and the internal lock you control from inside the room was broken (by what appears to be force). I felt like it was in my best interest to take my luggage with me to work.  The hotel does offer breakfast... but i didn't dare eat it after the night before. It also claims to be non-smoking. that might be true, but not knowing all the smells I smelled and the yellowing on the walls and light switches.. I'd assume that is not enforced. Also, please note that the 5 star reviews you see here. (I verified this is accurate on the google reviews at least), are entered in by the general manager and staff. feel free to stop by and look at their names and confirm for yourself as I did. 5I would not recommend this place to anyone, ever.  Especially people that are sensitive to odors, or mold or whatever.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Where to begin.  
+Let me preface,  if you are on an extreme budget or crunch,  you can stay at this hotel..... I guess?. 
+The front staff is very pleasant with everyone I've met. I haven't had the pleasure of meeting the cleaning crew,  but I have little faith in them.  I don't want to solely blame them,  as typically in hotels,  they can only work with what they are given and hotel mgmt can be blind to what implications they cause by saving a nickel to maximize profits.  Or maybe it's the clientele (It appears many of the customers are residents &amp; have little regard for the place).  Who knows. 
+I should note that I'm not the customer that complains about a stain or slight funk in a hotel room.  So if you read this and think to yourself "oh, there is always SOMEONE that complains about everything", that's not me.  
+Lobby: the lobby and common areas seem decent.  Actually I was quite surprised when I walked in and saw a large atrium type common space with a water feature.  It had a slight odor to it,  I'm assuming it was a funk from the air conditioning.  Almost a mildew type smell covered by cinnamon.  Not terrible,  but definitely made me think the air quality wasn't the best.  As I walked down the hallway to my room the cinnamon became stronger and stronger  to the point where you could 'feel'...Where to begin.  Let me preface,  if you are on an extreme budget or crunch,  you can stay at this hotel..... I guess?. The front staff is very pleasant with everyone I've met. I haven't had the pleasure of meeting the cleaning crew,  but I have little faith in them.  I don't want to solely blame them,  as typically in hotels,  they can only work with what they are given and hotel mgmt can be blind to what implications they cause by saving a nickel to maximize profits.  Or maybe it's the clientele (It appears many of the customers are residents &amp; have little regard for the place).  Who knows. I should note that I'm not the customer that complains about a stain or slight funk in a hotel room.  So if you read this and think to yourself "oh, there is always SOMEONE that complains about everything", that's not me.  Lobby: the lobby and common areas seem decent.  Actually I was quite surprised when I walked in and saw a large atrium type common space with a water feature.  It had a slight odor to it,  I'm assuming it was a funk from the air conditioning.  Almost a mildew type smell covered by cinnamon.  Not terrible,  but definitely made me think the air quality wasn't the best.  As I walked down the hallway to my room the cinnamon became stronger and stronger  to the point where you could 'feel' it. Like the hallway air was as old as that one really old lady that everyone knows. Either it was an entire can of spray or what it seemed to me was,  a string candle from one of the rooms to mask another odor. Room 1: I used to work maintenance in the projects.  This room had many of the features I became accustomed to seeing in low low rent types of places.  I opened the door and I began coughing. The room had a VERY strong odor of mold and death (I've dealt with apartments in the past where people had passed away and not been reported for weeks,  so yes I literally mean death). It was unbearable.  I honestly was hesitant to put my bags down. Naturally,  I examined the room a bit and for sake of time and space will just list what I found here:  found my sheets to be stained,  pillows were yellowish,  mold on the walls in the room (not in the expected location,  the bathroom) along the door and randomly on the walls, enough hair to make a wig,  feces on the bathroom wall,  debris left on the bathroom floor (Little bits of toilet paper and a wrapper or two),  the air conditioner produced a putrid odor of mold,  carpets stained and not visibly vacuumed.  I wish i thought to take pictures of this room,  but i didn't. I chalked it up as house keeping failing to clean the room,  so I requested another room.  Room 2: 10x better than the previous,  but still very bad.  The death odor was not present,  but the mold/mildew odor was.  Floors were also not vacuumed,  pillows yellowish,  sheets not as stained, but still slightly, I could make a baby wig with the left over hair found on the floor, cabinets, nightstand, bathroom etc.  There was left over what I'm guessing is skin flakes on the night stand,  pretty sure an old blood stain on the carpet and stalactites growing on the bathroom ceiling. (See pictures). I had to stay the night,  so i took my shower.  I played a game of hot lava as i jumped from towel to towel because the bathroom floor had several stains/smudges of I'm not sure what on it.  Shower went well,  but my towels were less than white and felt grungy.  Felt like i needed a shower after i dried off.  I put my clothes on and went to bed,  but slept on the bed  over the covers with my clothes on. This may seem extreme,  but after my new pair of socks were brown from walking from the bathroom to the bed, I felt like it was the right thing to do.  I should note that the lock on the door seems pretty breakable and the internal lock you control from inside the room was broken (by what appears to be force). I felt like it was in my best interest to take my luggage with me to work.  The hotel does offer breakfast... but i didn't dare eat it after the night before. It also claims to be non-smoking. that might be true, but not knowing all the smells I smelled and the yellowing on the walls and light switches.. I'd assume that is not enforced. Also, please note that the 5 star reviews you see here. (I verified this is accurate on the google reviews at least), are entered in by the general manager and staff. feel free to stop by and look at their names and confirm for yourself as I did. 5I would not recommend this place to anyone, ever.  Especially people that are sensitive to odors, or mold or whatever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r516061869-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>516061869</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>i love this hotel i stay the a Night just to get out of rutina and love the room for a peaceful stay away nice facility and stay i just love that has a bar so Great place for couples Night and have a Day for your self !!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r515638898-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -243,9 +371,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r501425313-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -261,6 +386,39 @@
     <t>this was a really nice place. all rooms face the atrium. free continental b'fast was a little bland. lots of people here but very quiet. it's an older place that is being updated. had 2 queen beds. very comfortable. the atrium w/fountain was beautiful. kids are not allowed upstairs. they stay on the first floor, which is nice--no stomping or jumping on beds.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r485933847-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>485933847</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Beautiful lobby , confortable bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My experience at the Clarion Inn was awesome ! Front Desk clerks were very professional,  received my Choice member welcome bag. Will definitely come back , coming from work to a comfortable bed and a beautiful lobby ! Can't beat that </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r485925168-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>485925168</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Took my family to the beach and staying here for the weekend ! Great customer service!  Love the renovations and will recommend to others! Buen servicio les recomiendo este hotel ! Las renovaciones son perfecta!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r479014360-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -276,9 +434,6 @@
     <t>My husband and I stayed at the Clarion Inn for the first time since the most recent 'turnover' of ownership. The phone in our room did not work at all. We requested a roll away bed to accommodate a guest on one of the two nights we stayed. One employee told my husband that there would be no charge for the bed, but later, we were advised that we would incur a $12 charge. We returned to the room several times during our stay and had no problems with either of the room card's we  were issued when we checked in. Knowing that our guest would be returning after we had retired for the night, we DID NOT use additional means to lock the door. Our guest was unable to enter the door, even after getting another key card. The employee, who was on night duty, was unable to call the room (broken phone), and mistakenly called the wrong room at sometime after 1am. She accompanied my guest to our room, and snapped at my guest after the visitor loudly knocked on the door. I opened the door to admit my guest and observed a rather put out employee (whom I knew was working the front desk; I saw her when I left and returned to the inn). I was not offered a replacement key card, as the employee kept the one's that didn't work. I also observed that there...My husband and I stayed at the Clarion Inn for the first time since the most recent 'turnover' of ownership. The phone in our room did not work at all. We requested a roll away bed to accommodate a guest on one of the two nights we stayed. One employee told my husband that there would be no charge for the bed, but later, we were advised that we would incur a $12 charge. We returned to the room several times during our stay and had no problems with either of the room card's we  were issued when we checked in. Knowing that our guest would be returning after we had retired for the night, we DID NOT use additional means to lock the door. Our guest was unable to enter the door, even after getting another key card. The employee, who was on night duty, was unable to call the room (broken phone), and mistakenly called the wrong room at sometime after 1am. She accompanied my guest to our room, and snapped at my guest after the visitor loudly knocked on the door. I opened the door to admit my guest and observed a rather put out employee (whom I knew was working the front desk; I saw her when I left and returned to the inn). I was not offered a replacement key card, as the employee kept the one's that didn't work. I also observed that there are very few, only one that I saw, security lights in the back parking lot, so I wouldn't park my car in that location. Directly behind my room was a heavily damaged vehicle, which only added to my security concerns. There was no reason for an employee of the Clarion Inn to treat a visitor or guest in such a disrespectful manner. It was not our fault that the employee was inconvenienced by the failure of the key card. I didn't appreciate being accused of locking the door, when I knew that another guest would be returning and entering the room. I usually stay at this hotel when I am in my hometown, but I may have to reconsider my lodging needs in the future. The service has definitely deteriorated since my previous review. Hopefully, the management will take steps to resolve these issues.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -327,6 +482,51 @@
     <t>The room was clean. No readily accessible  receptacles except for the desk lamp and the bathroom. Others are behind the bed. The room is clean. The bathroom small. The shower handle is hard to adjust. The neighbor's shower water evidently drains in my drain cause it gets very loud when he showers and the nose gets loud from my tub drain.The internet was so slow from a broken router close to my room that I asked to move into the room with the loud drain and no receptacles.  My desk lamp and microwave do not get power from behind the console. I have complained and it was never fixed, 4 days ago I complained. Got home today to no desk light and no microwave. Therefore no place to plug in my computer and phone, except the bathroom.  Breakfast was on time only twice out of the 5 days I have been here. I leave for work early so I have been skipping the luxury. Not there anyway. The coffee pot in the room does not work and I complained to no avail. I took it down to the desk tonight.I am working in the area and so I was put here by my company.I am at the desk regularly asking for something to get fixed. The clerk takes out a pad, writes it down, and nothing is ever done.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r421536991-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>421536991</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Had a great time!</t>
+  </si>
+  <si>
+    <t>My experience at the Clarion Hotel was a great one! All of the staff were very courteous, friendly, and always greeted us with a smile. Our room was very clean and the service we received was great, and very quick. Breakfast was very good, food was hot, and there were many options. The biggest plus was that the hotel has a restaurant and bar, so we didn't have to go far to eat! My family had a great stay, and we will definitely come back again!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r407396735-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>407396735</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>It was clean but the bathroom was a bit cramped.   The staff was young and could use a little more training on the handling of guests.  I didn't use the complimentary breakfast so I can't comment on that.  Coffee at front desk is a bit cold. Finding the place was hard by GPS and when I called the girl really didn't take the time to explain it correctly to me. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Hemi P, General Manager at Clarion Inn, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>It was clean but the bathroom was a bit cramped.   The staff was young and could use a little more training on the handling of guests.  I didn't use the complimentary breakfast so I can't comment on that.  Coffee at front desk is a bit cold. Finding the place was hard by GPS and when I called the girl really didn't take the time to explain it correctly to me. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r402672096-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -345,12 +545,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Hemi P, General Manager at Clarion Inn, responded to this reviewResponded August 24, 2016</t>
-  </si>
-  <si>
-    <t>Responded August 24, 2016</t>
-  </si>
-  <si>
     <t>Upon arrival into Lake Jackson, i noticed the hotel was right off the exit and easy to get too.  The property is located off the main hwy into Freeport, TX and have plenty of eateries around including on the premises.  The breakfast was ok, but the waffles were the highlight.  The staff was wonderful from check in to check out.More</t>
   </si>
   <si>
@@ -390,6 +584,42 @@
     <t>Beds are comfortable. Most maids are terrific and friendly.Breakfast is horrible .It tastes and looks like the leftover's from the previous morning..Eggs are very dry. Bacon is not whole pieces it has been cut up.The Hash browns all stuck together and were dry and under cooked.They tastes as though they had been cooked in a microwave.Not even the bread tastes fresh.Yogurt and cereal are safe choices..This hotel has a very low enthusiastic need to put customers first and making you feel at home. Smiles and greetings from the front desk are minimal depending on whom is working at the front .If you don't expect much you won't be let down..The worst choice hotels we have ever stayed at :)...I sure hope things improve ! We travel all year round due to my husbands work and he wants to leave this hotel .I'm am just simply exhausted from hotel hopping so my fingers are crossed that things will get better ..I will keep you all informed as to how things go..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r394592262-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>394592262</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Not bad for the area, but ...</t>
+  </si>
+  <si>
+    <t>The hotel smells better than the LaQuinta and does not have roaches! This is a plus for us. The other hotels seem to have a price gauging fix going on at about $140/night. This place is ok for sleeping, however the breakfast sucks!There are fake scrambled eggs - sometimes-. The eggs are horrible. (I would rather have hard boiled and I don't really like those!). The pastries are horrible too, but they do have bacon and sausage and biscuits sometimes. And the standard waffle iron. The "minute Maid juice" tasted like orange water- maybe. YuckWe bought breakfast from McDonalds/Chik-Fil-a/ etc rather than eat this one, but it is still a better value for the rooms. There isn't much to choose from in this areaMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel smells better than the LaQuinta and does not have roaches! This is a plus for us. The other hotels seem to have a price gauging fix going on at about $140/night. This place is ok for sleeping, however the breakfast sucks!There are fake scrambled eggs - sometimes-. The eggs are horrible. (I would rather have hard boiled and I don't really like those!). The pastries are horrible too, but they do have bacon and sausage and biscuits sometimes. And the standard waffle iron. The "minute Maid juice" tasted like orange water- maybe. YuckWe bought breakfast from McDonalds/Chik-Fil-a/ etc rather than eat this one, but it is still a better value for the rooms. There isn't much to choose from in this areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r392741117-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>392741117</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Dreading our stay!</t>
+  </si>
+  <si>
+    <t>We stay at a lot of hotels and we called to request a crib, only to find out (for the first time ever) that THEY CHARGE TO USE A CRIB!!!! Craziest thing I have ever heard! She continued to argue and explain how people have stolen them before, and the housekeepers didn't report it... that they also charge for the sheets and roll aways, too. Thankfully we called before we left and we are bringing our own portable crib. It is already booked but we can already say after the rude customer service and this crazy policy that we will not stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay at a lot of hotels and we called to request a crib, only to find out (for the first time ever) that THEY CHARGE TO USE A CRIB!!!! Craziest thing I have ever heard! She continued to argue and explain how people have stolen them before, and the housekeepers didn't report it... that they also charge for the sheets and roll aways, too. Thankfully we called before we left and we are bringing our own portable crib. It is already booked but we can already say after the rude customer service and this crazy policy that we will not stay here again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r374298369-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -453,6 +683,45 @@
     <t>As soon as i walked in, I got welcome in a very polite way. Decent breakfast, great housekeeping and great lobby. Front desk was always smiling and everytime i needed help they kindly offer to help. i will definitely check them out for my next visit.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r350126009-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>350126009</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Best hotel to stay in lake jackson area</t>
+  </si>
+  <si>
+    <t>Very nice hotel,awesome staff everyone was very friendly since the day i walked in until the day i walked out,rooms were always very clean and the breakfast was great,i did not have any problems at all. Everyone made my stay great and I will definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel,awesome staff everyone was very friendly since the day i walked in until the day i walked out,rooms were always very clean and the breakfast was great,i did not have any problems at all. Everyone made my stay great and I will definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r349634078-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>349634078</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks can be deceiving </t>
+  </si>
+  <si>
+    <t>I'm easy to please, but this was ridiculous!!It looked real nice on website. But...in the morning, tried taking a shower. It took me 10 minutes just to get the shower to work, in general. A/C thermostat didn't work correctly...either extremely cold or burning hot. So we didn't sleep well.Ok...Made coffee in the room without high expectations(for motel), until we found HAIR inside the coffee cups!! So I went to talk to the manager, who seems to be unavailable on weekends??? No management on site?? Do they not clean anything?I understand that I got this at a discounted rate on Priceline, but, am I supposed to pay money for piss poor service.We decided NOT to try their free breakfast. Hope they don't charge extra for the bugs on bathroom sink. Gross!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm easy to please, but this was ridiculous!!It looked real nice on website. But...in the morning, tried taking a shower. It took me 10 minutes just to get the shower to work, in general. A/C thermostat didn't work correctly...either extremely cold or burning hot. So we didn't sleep well.Ok...Made coffee in the room without high expectations(for motel), until we found HAIR inside the coffee cups!! So I went to talk to the manager, who seems to be unavailable on weekends??? No management on site?? Do they not clean anything?I understand that I got this at a discounted rate on Priceline, but, am I supposed to pay money for piss poor service.We decided NOT to try their free breakfast. Hope they don't charge extra for the bugs on bathroom sink. Gross!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r348531596-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -468,9 +737,6 @@
     <t>Loved the large open area off the lobby very unique! the pool is small but nice and screened in so no pesty bugs. The little bar was a welcomed sight after a long day at the beach. the breakfast buffet was very enjoyableMoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>Loved the large open area off the lobby very unique! the pool is small but nice and screened in so no pesty bugs. The little bar was a welcomed sight after a long day at the beach. the breakfast buffet was very enjoyableMore</t>
   </si>
   <si>
@@ -507,9 +773,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Hemi P, Manager at Clarion Inn, responded to this reviewResponded December 7, 2015</t>
   </si>
   <si>
@@ -519,6 +782,42 @@
     <t>We were surprised by the big open area of the center of the hotel but quickly grew to like it. There are features that have been nicely updated and others that badly need a renovation. For instance, our room was very nicely updated except the ceiling in the bathroom which had an old stained t-bar ceiling. The bed was comfortable. The tv was really fuzzy in picture (in both rooms we stayed in) and we noticed the lobby tv was also fuzzy. Not sure what that's about. We had a "Do Not Disturb" sign in our door but that didn't stop the housekeeper from knocking and asking when we were leaving AN HOUR BEFORE the checkout time. When I told her we had a late checkout, she tilted her head sideways and said in a sad voice "really??". Apparently our being a guest has got in the way of her day. That was very irritating. The employee at the breakfast area was rude to my husband when he asked about getting more milk. Again, we apparently were disturbing the employees by asking them to do their jobs. Even with that in mind, we still enjoyed the hotel and do not want to blame the hotel for the bad staff.... Hopefully they get on that issue soon. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r325066531-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>325066531</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>There are many other choices to stay in the area.</t>
+  </si>
+  <si>
+    <t>I don't want to write this review because it is very disappointing to stay at a place that you know was once the best place to stay in the area.  I will not describe all the details of our experience, just advise anyone going to this area to pick one of the other choices  available.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r324513111-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>324513111</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Needs a complete makeover</t>
+  </si>
+  <si>
+    <t>We stayed here 2 night.  It was a disaster.  I had not been in the area for 8 years and this used to be the recommended place to stay.  What a disappointment!  The shower would not work, handle came off in my hand.  The lobby rugs were filthy and the main atrium that used to be so well decorated was totally bare.  My bathroom floor was dirty, if a mop was used it was not used under the commode or the edges of the floor. They served a breakfast, but the food was not kept warm or fresh.  We ate elsewhere the second morning.  In my opinion this hotel has gone from the recommended place in town to the place to avoid.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here 2 night.  It was a disaster.  I had not been in the area for 8 years and this used to be the recommended place to stay.  What a disappointment!  The shower would not work, handle came off in my hand.  The lobby rugs were filthy and the main atrium that used to be so well decorated was totally bare.  My bathroom floor was dirty, if a mop was used it was not used under the commode or the edges of the floor. They served a breakfast, but the food was not kept warm or fresh.  We ate elsewhere the second morning.  In my opinion this hotel has gone from the recommended place in town to the place to avoid.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r316320963-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -573,6 +872,36 @@
     <t>The staff is very friendly. The place is so nice. The rooms are clean, spacious, and comfortable. The had renewed the breakfast area and bar and I can honestly say that We enjoyed every single thing in the breakfast,  and the girls at the bar are great just like everything on it, we Had such a great time The manager, and front desk ladies are incredible. They will answer any questions we had and gave us suggestions on where to go to eat. They made us feel welcomed in this town. They show us how much they really care about their customers. When I return to Lake Jackson area I will be staying here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r302683127-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>302683127</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Very nice and inviting Hotel</t>
+  </si>
+  <si>
+    <t>The staff was very friendly. Rooms were very clean. I understand they are under renovation so I give them their props on updating everything. Loved the bartender Amber, but the other bartender Margarita seemed to always ask everyone for a tip also she needs to learn how to make drinks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r300369460-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>300369460</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Nasty Hotel</t>
+  </si>
+  <si>
+    <t>I had two rooms reserved at the Clarion. Upon check in the front desk agent was not very friendly or helpful. We went to the rooms and they were very nasty dirty and there were roaches running around in the bathroom and there were other guests in the hallway smoking marijuana. We decided to leave and go to another hotel. When I went back to the desk the lady at the desk more or less called me a liar. I got my money back and left. I would NOT recommend this hotel ever.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r296298970-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -624,6 +953,45 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r278369600-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>278369600</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Sorry We Stayed!</t>
+  </si>
+  <si>
+    <t>If you have read a negative review of this hotel it is the truth.  I would like to give the staff a 5 star rating.  Our air did not work, at midnight they moved us to a room right next door, that was so cold!  The first room no light on the desk, no where to plug in electronics.  We were there for high school graduation and it was outside, it was so hot we were looking forward to getting back to our cool room.  The second room was a little better that it had a lamp on the desk and a few extra plugs.  When we woke up we were sleeping on the mattress, the sheets didn't even stay on the bed.  We were never able to connect to the wi-fi.  We met family for breakfast, so didn't eat the hotel (loosely worded) breakfast.  The towels in the first room were nicer, the second room were rough and scratchy.  The doorknob in the 2nd bathroom was falling off.  I feel that a lot of men stay there because they are working in the area and this isn't a big deal to stay here.  They are remodeling, but that is not going to fix what is wrong with that building.   Their smoking and non smoking rooms are mixed, so as you are walking down the hall to your non smoking room, you are breathing in the smoke.  This Inn does...If you have read a negative review of this hotel it is the truth.  I would like to give the staff a 5 star rating.  Our air did not work, at midnight they moved us to a room right next door, that was so cold!  The first room no light on the desk, no where to plug in electronics.  We were there for high school graduation and it was outside, it was so hot we were looking forward to getting back to our cool room.  The second room was a little better that it had a lamp on the desk and a few extra plugs.  When we woke up we were sleeping on the mattress, the sheets didn't even stay on the bed.  We were never able to connect to the wi-fi.  We met family for breakfast, so didn't eat the hotel (loosely worded) breakfast.  The towels in the first room were nicer, the second room were rough and scratchy.  The doorknob in the 2nd bathroom was falling off.  I feel that a lot of men stay there because they are working in the area and this isn't a big deal to stay here.  They are remodeling, but that is not going to fix what is wrong with that building.   Their smoking and non smoking rooms are mixed, so as you are walking down the hall to your non smoking room, you are breathing in the smoke.  This Inn does not live up to the standard of a Choice Hotel, it's the worst Choice Hotel property that we have ever stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you have read a negative review of this hotel it is the truth.  I would like to give the staff a 5 star rating.  Our air did not work, at midnight they moved us to a room right next door, that was so cold!  The first room no light on the desk, no where to plug in electronics.  We were there for high school graduation and it was outside, it was so hot we were looking forward to getting back to our cool room.  The second room was a little better that it had a lamp on the desk and a few extra plugs.  When we woke up we were sleeping on the mattress, the sheets didn't even stay on the bed.  We were never able to connect to the wi-fi.  We met family for breakfast, so didn't eat the hotel (loosely worded) breakfast.  The towels in the first room were nicer, the second room were rough and scratchy.  The doorknob in the 2nd bathroom was falling off.  I feel that a lot of men stay there because they are working in the area and this isn't a big deal to stay here.  They are remodeling, but that is not going to fix what is wrong with that building.   Their smoking and non smoking rooms are mixed, so as you are walking down the hall to your non smoking room, you are breathing in the smoke.  This Inn does...If you have read a negative review of this hotel it is the truth.  I would like to give the staff a 5 star rating.  Our air did not work, at midnight they moved us to a room right next door, that was so cold!  The first room no light on the desk, no where to plug in electronics.  We were there for high school graduation and it was outside, it was so hot we were looking forward to getting back to our cool room.  The second room was a little better that it had a lamp on the desk and a few extra plugs.  When we woke up we were sleeping on the mattress, the sheets didn't even stay on the bed.  We were never able to connect to the wi-fi.  We met family for breakfast, so didn't eat the hotel (loosely worded) breakfast.  The towels in the first room were nicer, the second room were rough and scratchy.  The doorknob in the 2nd bathroom was falling off.  I feel that a lot of men stay there because they are working in the area and this isn't a big deal to stay here.  They are remodeling, but that is not going to fix what is wrong with that building.   Their smoking and non smoking rooms are mixed, so as you are walking down the hall to your non smoking room, you are breathing in the smoke.  This Inn does not live up to the standard of a Choice Hotel, it's the worst Choice Hotel property that we have ever stayed in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r273781871-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>273781871</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Interesting design.</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights on week days for business.  Place is still undergoing some renovations inside.  Bldg is a very interesting design, and has a lot of great possibilities.  My room was clean, and everything worked.  I liked the fact that the room contained many places to charge up electronics.  WiFi only worked after check in.  The next 2 days it would connect you, but couldn't access anything.  At checkout, others were complaining as well.  They were given the providers number.  Check in was very quick, but check out was slow due to printer issues.  No problem, as I ask for receipt to be emailed.  It was done in minutes.  Staff was friendly and helpful.  On check in the lady gave me lots of info on the area.  The WiFi password was written on the key envelope which is a nice touch.  My room was very quiet.  Parking is very limited.  Location is very easy to find, and you can walk to many places to eat.  I would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights on week days for business.  Place is still undergoing some renovations inside.  Bldg is a very interesting design, and has a lot of great possibilities.  My room was clean, and everything worked.  I liked the fact that the room contained many places to charge up electronics.  WiFi only worked after check in.  The next 2 days it would connect you, but couldn't access anything.  At checkout, others were complaining as well.  They were given the providers number.  Check in was very quick, but check out was slow due to printer issues.  No problem, as I ask for receipt to be emailed.  It was done in minutes.  Staff was friendly and helpful.  On check in the lady gave me lots of info on the area.  The WiFi password was written on the key envelope which is a nice touch.  My room was very quiet.  Parking is very limited.  Location is very easy to find, and you can walk to many places to eat.  I would stay here again if in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r269592997-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -639,9 +1007,6 @@
     <t>The room was clean clean and spacious. Bed is a bit hard and you can feel the coils. My husband liked it but I don't. I like the place despite the construction. Front desk lady focused on messaging a friend #smh Management may want to look into that... It was quite rude. Since they accepted pets to stay, I had a fear that this may be a stinky room but that is not the case. I did not smell one thing that would elude to that.</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r264954392-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -678,6 +1043,33 @@
     <t>I came to Lake Jackson with my husband and baby to visit a family member. As soon as we entered our room I felt like the worlds worst mother as I didn't feel it would be safe for my baby to sleep in such an envoirnment. The room smelt of mold and urine. We were not able to change our room and everything had to go through the owners who were never to be seen.  We stayed two nights. Since we originally were booked for a week, we were givn a weekly rate. When we left we were charged an additional $40/night as this was the standard nightly rate. This place has now become a Clarion Hotel. I do not understand how they past inspection. I suspect there is harmful mold under those carpets. Lake Jackson is a humid place and with no ventilation in the bathrooms and with windows tht can't open, it is the perfect enviornment for mold growth. I was told those carpets are original from the 1970's. I do not recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r260945191-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>260945191</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Medium hotel in Lake Jackson</t>
+  </si>
+  <si>
+    <t>Had to stay for business in the hotel. The room was in general ok (on the 2nd floor). The airconditioning however sounded like a jet engine when it starts. My room was at the attrium so when people where gathering in the attrium I could clearly hear in my room. Also the bar (situated in the atrium) played music till late.Bed was good, bathroom old, but everything worked. In the bar, the tables where sticky.The wifi worked intermitantly. Apparently the hotel is changing to Clarion, hopefully it improves.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r260936614-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>260936614</t>
+  </si>
+  <si>
+    <t>Yikes ... stay away.</t>
+  </si>
+  <si>
+    <t>stories of dirty rooms, bullet holes in rooms, leaking ceilings, terrible wifi ... i didn't stay but my business colleagues were stuck here.  would definitely suggest another location.  apparently this is the original hotel in the area.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r257107551-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -735,6 +1127,42 @@
     <t>We didn't enjoy our stay. We were trying to sleep around 1am when I heard loud voices yelling across the indoor courtyard. I walked out of the room and over to the front desk to see what the problem was. There were two families that appeared to have just check-ed i. I didn't understand the language they were using so not sure what they were yelling about. The sad thing is the front desk clerk never tried to get them to be quiet while I was there. I asked one lady to be quiet, but it didn't work for long. The ice machine is was sent to by the front desk was broken. It looked like it hadn't worked in a while. Our room was very spacious, but the bathroom felt tiny and it clearly needed some mildew scum remover. The breakfast did include eggs, bacon, and waffles. However, the taste wasn't that good. The waffles didn't have syrup. The bagels didn't have cream cheese. Inside the hotel had a strange musty smell to it. Also our room had a strange oder to it. I think this hotel may have been a top of the line hotel 40 years ago, but not anymore. Spend a little bit extra money and find something else.I did like the pool table and bar inside the hotel. The bed was comfortable and clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r248191501-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>248191501</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Should not be the number 1 rated hotel in Lake Jackson.</t>
+  </si>
+  <si>
+    <t>I trusted old reviews that Cherotel was the top rated hotel in Lake Jackson. That was a mistake I won't make again.  Firstly, when I checked into my room, I clearly see that the bed sheets are very old and tattered.  Then I see a big cigarette hole in the sheets.  The bathroom is not very clean and the sink drain stopper is broken.  There are nasty stains on the bathroom wall that look like they could be easily wiped off but weren't.  There was someone else's hair on the sink counter.But, the Internet connection was surprisingly good.  But uoverall, they need new sheets, towels, and a huge improvement on housekeepingMoreShow less</t>
+  </si>
+  <si>
+    <t>I trusted old reviews that Cherotel was the top rated hotel in Lake Jackson. That was a mistake I won't make again.  Firstly, when I checked into my room, I clearly see that the bed sheets are very old and tattered.  Then I see a big cigarette hole in the sheets.  The bathroom is not very clean and the sink drain stopper is broken.  There are nasty stains on the bathroom wall that look like they could be easily wiped off but weren't.  There was someone else's hair on the sink counter.But, the Internet connection was surprisingly good.  But uoverall, they need new sheets, towels, and a huge improvement on housekeepingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r241858999-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>241858999</t>
+  </si>
+  <si>
+    <t>11/28/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel in town</t>
+  </si>
+  <si>
+    <t>I was in town for business it was easy &amp; fast check inn. Front desk was very professional &amp; room was very fresh &amp; clean looks like everything is newly renovated. Breakfast was hot &amp; fresh I was surprised because usually independent doesn't served hot breakfast but cherotel do. Bar &amp; restaurant was bonus. I will recommend this hotel to everyone because of great service with affordable price.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r240275100-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -750,9 +1178,6 @@
     <t>Rooms were very clean, beds were comfortable, bathroom look bit old but overall everything was nice and clean. The staff was very nice and friendly and helped with everything I had question with.  Breakfast was good as well, great food to start your morning with. Will definitely stay here again.</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r236371067-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -789,6 +1214,60 @@
     <t>I came into town this weekend for the CPRA Rodeo Finals in Angleton, TX. Everything was booked solid. I looked into hotels in Lake Jackson, TX. The CHEROTEL Hotel had horrible reviews!  I had no other option so I booked my 2 rooms. Upon arrival I was completely BLOWN AWAY!!!  You walk into a wide open area with a RUNNING WATERFALL then I looked to the left and they had a BAR open from 5:30-Midnight.  Several large oversized couches and chairs were around the downstairs area and waterfall. They serve up a large HOT breakfast in the mornings. They had an elevator to the 2nd floor WOW... I can not even describe it. The ladies at the front desk were friendly, professional and just sweet!!!  This CHEROTEL HOTEL was recently redone. AMAZINGLY HAPPY!Another words FORGET about reviews and judge for yourself!  Lol... Didn't we all learn this in kindergarden. Blessings to ALLMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r227589007-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>227589007</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>A real VALUE for the area</t>
+  </si>
+  <si>
+    <t>After reading other Trip Advisor reviews (thanks to everyone who shares so I know where to stay!) I decided to give this hotel a try, and I am so glad that I did.  I asked for a quiet room and was given room 225.  It was newly redecorated and was lovely.  It was a large room with a King bed, double door mirror doors on the closet, ironing board and iron, large flat screen TV with a great picture, the hair dryer - unlike another reviewers - worked, and I didn't see any spiders - unlike another reviewer.  In fact, the room was spotless and always fresh when we returned each night.   The showerhead had several settings and was tall enough for my 6'2'' husband.  There was a great magnifying mirror attached to the bathroom wall that could be moved for your best viewing.  The A/C unit worked very well and was not overly noisy.  The room's windows overlooked the massive indoor courtyard and fountain.  Lights are left on 24 hours in the courtyard, but the drapes blocked most of the light; however, you won't need a night light.  I noticed some of the rooms on the first floor (that happened to have their doors open) had windows to the outside and did not have a window into the courtyard.  These were very dark but I can't testify to how quiet they are.    The room had nice shampoo, soap, and...After reading other Trip Advisor reviews (thanks to everyone who shares so I know where to stay!) I decided to give this hotel a try, and I am so glad that I did.  I asked for a quiet room and was given room 225.  It was newly redecorated and was lovely.  It was a large room with a King bed, double door mirror doors on the closet, ironing board and iron, large flat screen TV with a great picture, the hair dryer - unlike another reviewers - worked, and I didn't see any spiders - unlike another reviewer.  In fact, the room was spotless and always fresh when we returned each night.   The showerhead had several settings and was tall enough for my 6'2'' husband.  There was a great magnifying mirror attached to the bathroom wall that could be moved for your best viewing.  The A/C unit worked very well and was not overly noisy.  The room's windows overlooked the massive indoor courtyard and fountain.  Lights are left on 24 hours in the courtyard, but the drapes blocked most of the light; however, you won't need a night light.  I noticed some of the rooms on the first floor (that happened to have their doors open) had windows to the outside and did not have a window into the courtyard.  These were very dark but I can't testify to how quiet they are.    The room had nice shampoo, soap, and lotion.  There was a coffee maker and supplies.  The refrigerator was a nice size for a small space, but it does not have a freezer compartment.  There was a desk with a chair and also a lounging chair with a foot stool.  I was impressed with the many lights.  The desk and bed side lamps had plugins for you to use; very handy.  The bed was comfortable.  I didn't try the pillows - always take my own.   We had a no smoking room and we didn't smell any smoke anywhere in  the hotel.  We also had a room that did not allow pets.   It was so very quite in the room. We did not hear people arriving or leaving - no slamming doors.  I have never been in a hotel that had a sign in the elevator "No children under the age of 18 allowed on the second floor".  Now I love children, but I hate being in a hotel where they are running up and down my hall, or running and playing in the floor overhead.  Thank you Cherotel management for such a great idea! There are two computers for your use in a room behind the check-in desk and they have Wi-Fi inside the hotel.  There were other services we did not use.  They have a bar - never heard a sound from it - and a absolutely great restaurant, "The Picket Fence", where the prices are reasonable, you have lots of choices, and the food is delicious -  dress casually.  If you need a gift be sure to take a look into the restaurant's gift shop.  I found everything I needed to make those waiting at home happy; their gift selections were many, lovely, and affordably priced.The free breakfast was adequate.  Three kinds of dry cereal, orange juice, apple juice, coffee, bread for toast, bagels, donuts, coffee cakes, a fresh waffle maker, apples, oranges, cream cheese, jellies, and butter.          The hotel prices were low compared to nearby hotels.  When we checked in we were given an unbelievable extended stay rate.  When we had to leave early, the money for the extra nights was quickly and pleasantly refunded (at 3:30 a.m.) and we were happy to revert back to the original, reasonable price .   We did not meet a grumpy employee the entire time.  I was very please at how helpful and friendly everyone was.  When I read a review on trip advisor that gives me information that helps me, I always click "yes" for being helpful.  I hope you will do the same whenever you read a valuable review.  I'm sure that most people are just as busy as me, and I am very busy; however, I am very picky and  would hate to make a travel decision without reading a Trip Advisor review so I need to repay with reviews of my own.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>jack c, General Manager at Clarion Inn, responded to this reviewResponded September 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2014</t>
+  </si>
+  <si>
+    <t>After reading other Trip Advisor reviews (thanks to everyone who shares so I know where to stay!) I decided to give this hotel a try, and I am so glad that I did.  I asked for a quiet room and was given room 225.  It was newly redecorated and was lovely.  It was a large room with a King bed, double door mirror doors on the closet, ironing board and iron, large flat screen TV with a great picture, the hair dryer - unlike another reviewers - worked, and I didn't see any spiders - unlike another reviewer.  In fact, the room was spotless and always fresh when we returned each night.   The showerhead had several settings and was tall enough for my 6'2'' husband.  There was a great magnifying mirror attached to the bathroom wall that could be moved for your best viewing.  The A/C unit worked very well and was not overly noisy.  The room's windows overlooked the massive indoor courtyard and fountain.  Lights are left on 24 hours in the courtyard, but the drapes blocked most of the light; however, you won't need a night light.  I noticed some of the rooms on the first floor (that happened to have their doors open) had windows to the outside and did not have a window into the courtyard.  These were very dark but I can't testify to how quiet they are.    The room had nice shampoo, soap, and...After reading other Trip Advisor reviews (thanks to everyone who shares so I know where to stay!) I decided to give this hotel a try, and I am so glad that I did.  I asked for a quiet room and was given room 225.  It was newly redecorated and was lovely.  It was a large room with a King bed, double door mirror doors on the closet, ironing board and iron, large flat screen TV with a great picture, the hair dryer - unlike another reviewers - worked, and I didn't see any spiders - unlike another reviewer.  In fact, the room was spotless and always fresh when we returned each night.   The showerhead had several settings and was tall enough for my 6'2'' husband.  There was a great magnifying mirror attached to the bathroom wall that could be moved for your best viewing.  The A/C unit worked very well and was not overly noisy.  The room's windows overlooked the massive indoor courtyard and fountain.  Lights are left on 24 hours in the courtyard, but the drapes blocked most of the light; however, you won't need a night light.  I noticed some of the rooms on the first floor (that happened to have their doors open) had windows to the outside and did not have a window into the courtyard.  These were very dark but I can't testify to how quiet they are.    The room had nice shampoo, soap, and lotion.  There was a coffee maker and supplies.  The refrigerator was a nice size for a small space, but it does not have a freezer compartment.  There was a desk with a chair and also a lounging chair with a foot stool.  I was impressed with the many lights.  The desk and bed side lamps had plugins for you to use; very handy.  The bed was comfortable.  I didn't try the pillows - always take my own.   We had a no smoking room and we didn't smell any smoke anywhere in  the hotel.  We also had a room that did not allow pets.   It was so very quite in the room. We did not hear people arriving or leaving - no slamming doors.  I have never been in a hotel that had a sign in the elevator "No children under the age of 18 allowed on the second floor".  Now I love children, but I hate being in a hotel where they are running up and down my hall, or running and playing in the floor overhead.  Thank you Cherotel management for such a great idea! There are two computers for your use in a room behind the check-in desk and they have Wi-Fi inside the hotel.  There were other services we did not use.  They have a bar - never heard a sound from it - and a absolutely great restaurant, "The Picket Fence", where the prices are reasonable, you have lots of choices, and the food is delicious -  dress casually.  If you need a gift be sure to take a look into the restaurant's gift shop.  I found everything I needed to make those waiting at home happy; their gift selections were many, lovely, and affordably priced.The free breakfast was adequate.  Three kinds of dry cereal, orange juice, apple juice, coffee, bread for toast, bagels, donuts, coffee cakes, a fresh waffle maker, apples, oranges, cream cheese, jellies, and butter.          The hotel prices were low compared to nearby hotels.  When we checked in we were given an unbelievable extended stay rate.  When we had to leave early, the money for the extra nights was quickly and pleasantly refunded (at 3:30 a.m.) and we were happy to revert back to the original, reasonable price .   We did not meet a grumpy employee the entire time.  I was very please at how helpful and friendly everyone was.  When I read a review on trip advisor that gives me information that helps me, I always click "yes" for being helpful.  I hope you will do the same whenever you read a valuable review.  I'm sure that most people are just as busy as me, and I am very busy; however, I am very picky and  would hate to make a travel decision without reading a Trip Advisor review so I need to repay with reviews of my own.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r218850170-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>218850170</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Nice remodel of an existing hotel</t>
+  </si>
+  <si>
+    <t>Nice room with comfortable beds and the staff to be courteous and friendly...the only issue is that the hair dryers, in the bathroom,  apparently were not replaced,  but should have been.  WiFi signal was weak (the room was in an alcove), however,  the staff were adding an additional server and took care of the Wiki issue.  Overall,  I found the facilities to be nice and a good bargain for the area.  I will be returning on subsequent visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>jack c, Manager at Clarion Inn, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Nice room with comfortable beds and the staff to be courteous and friendly...the only issue is that the hair dryers, in the bathroom,  apparently were not replaced,  but should have been.  WiFi signal was weak (the room was in an alcove), however,  the staff were adding an additional server and took care of the Wiki issue.  Overall,  I found the facilities to be nice and a good bargain for the area.  I will be returning on subsequent visits.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r217447356-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -804,15 +1283,6 @@
     <t>I recently stayed at the hotel for Business. The staff was  awesome. The room was large and the beds were extremely comfortable. The hotel have wi-fi  pool an restaurant with a bar. Plenty of fast-food places within walking distance. I recommend this hotel because of the great rooms an staff.Thumbs up to the Cherotel. MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
-    <t>jack c, Manager at Clarion Inn, responded to this reviewResponded August 22, 2014</t>
-  </si>
-  <si>
-    <t>Responded August 22, 2014</t>
-  </si>
-  <si>
     <t>I recently stayed at the hotel for Business. The staff was  awesome. The room was large and the beds were extremely comfortable. The hotel have wi-fi  pool an restaurant with a bar. Plenty of fast-food places within walking distance. I recommend this hotel because of the great rooms an staff.Thumbs up to the Cherotel. More</t>
   </si>
   <si>
@@ -858,6 +1328,33 @@
     <t>Old smell everywhere especially in the elevator. Bugs in room, holes in sheets, bathroom clean but looked terrible, and if you are 5ft tall counters are great. Toilet and counters are child height.  Never again will I stay here. Baymont down the street is 1000 times better and more comfortable.  By the way the beds at the cher are hard as concrete More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r214904042-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>214904042</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Nice and decent</t>
+  </si>
+  <si>
+    <t>Hotel was very clean. It seems like they just renew the hotel. My first stay was last year and this is my second stay at hotel and I see big change. I should say a huge new change. Lobby is excellent. Friendly service . Free upgrade offered me at check in. Hot breakfast was great with sausage and egg patties, waffles, and much more to offer like fresh fruits to start a day with. Would suggest this hotel to all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r214869212-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>214869212</t>
+  </si>
+  <si>
+    <t>Best stay ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is the best at it's location and best price. Renovation to this hotel is amazing. Lobby looks really great. We were welcome with great smile and greeting. All employees are very helpful. Hotel looks very clean.Beds are very comfortable. Very big room.Overall our stay was great. Hot breakfast is a good addition. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r213939951-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -916,6 +1413,36 @@
   </si>
   <si>
     <t>I love this hotel!!  if you need get away and you going to lake Jackson, tx this is the hotel you wanna stay at. Its peace and quiet, I got best sleep on my life. they have wonderful staff and service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r201818998-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>201818998</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>Home away from home from January -February</t>
+  </si>
+  <si>
+    <t>The clientele are friendly and courteous. The hotel offers continental breakfast, on site laundry and close to stores, restaurants and easy access to highways. This hotel is also close to  Surfside Beach which has State Parks with covered picnic tables, grills, bath houses and you can fish and enjoy the ships coming and going in the ship channel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r201595719-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>201595719</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>Hotel is very clean and great staff with positive attitude and very accommodative. They are doing renovation and it is looking great. I look forward to stay again after everything is updated and also recommend this property.Thanks to everyone for all your kindness during my stay.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r196943727-Clarion_Inn-Lake_Jackson_Texas.html</t>
@@ -977,6 +1504,39 @@
     <t>I have stayed twice each time for one night. If I can avoid staying here another night I will do. I know its only for the one night but there is a couple of basics that is irritating. The cooked breakfast in the morning is tragic and I would not recommend it to anyone. The key cards to open your door are very hit and miss and even with help from reception can take numerous attempts to get into the room, Once you are in the room the temperature seems hard to get right but the bed is good. Stay in a room near the bar and you suffer from noise. I might add that we take about 20 rooms at a time and the breakfast and doors keys are a common problem. On our last visit one occupant had to put with a barking dog next door that was constant and after banging on the door the conclusion was the dog was in the room on its ownMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r179498726-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>179498726</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Good overnight stay</t>
+  </si>
+  <si>
+    <t>We visited the Lake Jackson area recently with our two grandchildren and spent the day at  Surfside Beach. The kids enjoyed the day at the beach. We checked in at the Cherotel just in time for the kids to get about an hour of swim time in the outdoor pool before it closed. The hotel was clean, and the beds were comfortable. We had a late breakfast at the restaurant across the street which had a nice brunch-type buffet. Overall, the stay was good. We thought it was a good family-style hotel. Nothing fancy, but comfortable.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r172063126-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>172063126</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Average Stay, Beach Was Better</t>
+  </si>
+  <si>
+    <t>We stayed one night over tax free weekend.  Was disappointed when we were charged more than amount reserved.  Front desk person was somewhat arguementative.   Rooms were not new, but clean, got extra towels with no problem, not great AC for summer heat, nice pool area.  Glad we used the pool early as the pool area and parking lot got a bit sketchy at night.  I also had to wonder why a hotel had to put a sign up front that no drugs were allowed.....</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r171981219-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -1019,6 +1579,48 @@
     <t>Our week long stay at the Cherotel Reception and Conference Center was excellent. The staff was accommodating and kind. The room was cleaned and plenty of towels were placed in the bathroom every day. There was also a  night when we came in late and the restaurant was a few minutes from closing. At the request of the cook we stayed and enjoyed a nice family meal. I would stay at the Hotel again and recommend it to family and friends.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r171589125-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>171589125</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>Just enough</t>
+  </si>
+  <si>
+    <t>The front desk staff was friendly and professional at check in.  That is the highlight.  Everything else was average or less.  This was clearly once a very nice hotel.  There is a large center area with a nice fountain, seating groups, a bar, and behind that what was once a restaurant of sorts.  I guess there are meeting rooms in that section of the building as well.  It feels as though the hotel is waiting for some kind of activity, improvement, something. 
+The room was reasonably comfortable.  The lack of upkeep is a bit obvious in things like the curtains wouldn't close completely (I carry a clip for this), the fridge wouldn't get very cold, the microwave worked, but took 2x as long as it should, the hair dryer blew slightly better than tepid air.  Everything worked, but not completely.  
+Housekeeping did their job, mostly.  The room was clean enough.  I guess that pretty well describes the whole atmosphere, just enough.
+I had to find the breakfast area on my own as the front desk forgot to mention time and place and there is no information sheet or booklet about the hotel in the rooms.  I found it Tuesday morning just after 6:30AM.  Two staff members were still setting up, and neither of them returned my greeting, nor spoke at all.  When I did attend the breakfast the rest of the week, it was the same as everything else seems...The front desk staff was friendly and professional at check in.  That is the highlight.  Everything else was average or less.  This was clearly once a very nice hotel.  There is a large center area with a nice fountain, seating groups, a bar, and behind that what was once a restaurant of sorts.  I guess there are meeting rooms in that section of the building as well.  It feels as though the hotel is waiting for some kind of activity, improvement, something. The room was reasonably comfortable.  The lack of upkeep is a bit obvious in things like the curtains wouldn't close completely (I carry a clip for this), the fridge wouldn't get very cold, the microwave worked, but took 2x as long as it should, the hair dryer blew slightly better than tepid air.  Everything worked, but not completely.  Housekeeping did their job, mostly.  The room was clean enough.  I guess that pretty well describes the whole atmosphere, just enough.I had to find the breakfast area on my own as the front desk forgot to mention time and place and there is no information sheet or booklet about the hotel in the rooms.  I found it Tuesday morning just after 6:30AM.  Two staff members were still setting up, and neither of them returned my greeting, nor spoke at all.  When I did attend the breakfast the rest of the week, it was the same as everything else seems to be, just enough.  Cereal, unmarked carafes of milk, individual cups of fruit, waffles, bagels, coffee, juice.  There was no more than one other person eating at any time I went in there.Even the Wi-Fi is just (barely) enough.  I could not get a really good signal in my room, but got enough signal to get on line and function.  It would occasionally drop, not often.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk staff was friendly and professional at check in.  That is the highlight.  Everything else was average or less.  This was clearly once a very nice hotel.  There is a large center area with a nice fountain, seating groups, a bar, and behind that what was once a restaurant of sorts.  I guess there are meeting rooms in that section of the building as well.  It feels as though the hotel is waiting for some kind of activity, improvement, something. 
+The room was reasonably comfortable.  The lack of upkeep is a bit obvious in things like the curtains wouldn't close completely (I carry a clip for this), the fridge wouldn't get very cold, the microwave worked, but took 2x as long as it should, the hair dryer blew slightly better than tepid air.  Everything worked, but not completely.  
+Housekeeping did their job, mostly.  The room was clean enough.  I guess that pretty well describes the whole atmosphere, just enough.
+I had to find the breakfast area on my own as the front desk forgot to mention time and place and there is no information sheet or booklet about the hotel in the rooms.  I found it Tuesday morning just after 6:30AM.  Two staff members were still setting up, and neither of them returned my greeting, nor spoke at all.  When I did attend the breakfast the rest of the week, it was the same as everything else seems...The front desk staff was friendly and professional at check in.  That is the highlight.  Everything else was average or less.  This was clearly once a very nice hotel.  There is a large center area with a nice fountain, seating groups, a bar, and behind that what was once a restaurant of sorts.  I guess there are meeting rooms in that section of the building as well.  It feels as though the hotel is waiting for some kind of activity, improvement, something. The room was reasonably comfortable.  The lack of upkeep is a bit obvious in things like the curtains wouldn't close completely (I carry a clip for this), the fridge wouldn't get very cold, the microwave worked, but took 2x as long as it should, the hair dryer blew slightly better than tepid air.  Everything worked, but not completely.  Housekeeping did their job, mostly.  The room was clean enough.  I guess that pretty well describes the whole atmosphere, just enough.I had to find the breakfast area on my own as the front desk forgot to mention time and place and there is no information sheet or booklet about the hotel in the rooms.  I found it Tuesday morning just after 6:30AM.  Two staff members were still setting up, and neither of them returned my greeting, nor spoke at all.  When I did attend the breakfast the rest of the week, it was the same as everything else seems to be, just enough.  Cereal, unmarked carafes of milk, individual cups of fruit, waffles, bagels, coffee, juice.  There was no more than one other person eating at any time I went in there.Even the Wi-Fi is just (barely) enough.  I could not get a really good signal in my room, but got enough signal to get on line and function.  It would occasionally drop, not often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r170194811-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>170194811</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Smelly rooms</t>
+  </si>
+  <si>
+    <t>On the recommendation of a friend, we checked into this hotel and found a pleasant lobby but two very smelly rooms. At first thinking it was due to the recently shampooed carpet, we left for dinner only to return and find the smell worse than before. The front desk clerk offered two rooms on the second floor, which also had an odor. She was nonchalant about our concerns and expressed no regrets or dismay when we stated that we were checking out and moving to another hotel. She processed our refund quickly, and we moved to a neighboring hotel.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r167640711-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -1034,9 +1636,6 @@
     <t>When you walk in the lobby the ambiance reminds you of rustic Texas with a breathtaking rock fountain in the center. This hotel is a far cry from the "Corporate" looking hotels. It is very clean, has friendly accomadating staff, quick convenient check in, and conveniently located to the gulf.The rooms are simple and clean, with a cool view of the spectacular lobby right outside your window.</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r154401305-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1672,45 @@
     <t>Our family with kids stayed 2 nights here, and chose this hotel because of the Trip Advisor #1 rating. I have to say I was really disappointed, and the first time I have not agreed with the ratings over the course of 3-4 years of travelling with TA's reviews. There are nicer and newer chain hotels in Lake Jackson (within the same half mile, same side of freeway) that I turned down, and wish I would have looked past their no free breakfasts and higher price instead of going with the Cherotel.The hotel is an old 70's conference center that hasn't been touched. The rooms are adequate, but old and worn looking. Clean towels, soap, toiletry items are provided, and there is a mini-fridge and microwave in every room. We borrowed a DVD player to use from the front desk with a $20 deposit (cash only) that was refundable upon return. The walls are thin, and good thing we travel with our kids' sound sleep machine. You can easily hear the adjacent room TV's, hall noise, and parking lot racket. The beds could use new mattresses.  Breakfast: free danishes, cereal varities, milk, coffee, juice, fruit cups, bagels, and the fixins in an unstaffed room with tables and chairs.Our family will chose a different hotel next time we're in town :(More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r150419149-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>150419149</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>It was worth it</t>
+  </si>
+  <si>
+    <t>I chose to stay her with my 3 kids and husband after reading several reviews. The Price was a little cheaper than other hotels in the area and it was in a good location only 6mins from all the shopping and resteraunts in Lake Jackson and just a block or 2 from other places to eat as well. The room was clean and temperature was at good temp. Free wifi, clean bathrooms, they made sure my roll away was in room at check in, when i went to get extra towels they brought them right to me and also changed out the trash and took the dirty ones without me asking, but they didnt have to until time to clean room. My only complaint is housekeeping knocked on my door the first morning at 8 am to clean room and woke up all my kids. But they didnt the second morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I chose to stay her with my 3 kids and husband after reading several reviews. The Price was a little cheaper than other hotels in the area and it was in a good location only 6mins from all the shopping and resteraunts in Lake Jackson and just a block or 2 from other places to eat as well. The room was clean and temperature was at good temp. Free wifi, clean bathrooms, they made sure my roll away was in room at check in, when i went to get extra towels they brought them right to me and also changed out the trash and took the dirty ones without me asking, but they didnt have to until time to clean room. My only complaint is housekeeping knocked on my door the first morning at 8 am to clean room and woke up all my kids. But they didnt the second morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r142742636-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>142742636</t>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+  </si>
+  <si>
+    <t>The Cherotel ranks 1</t>
+  </si>
+  <si>
+    <t>I have had the opportunity to stay at many hotels around the globe. I can honestly say the employees at the Cherotel are second to none.  It starts at the Front Desk with Andrea, who always tries to put me in my favorite room and goes on to Erica who does a great job with functions.  Of course no review of the Cherotel would be complete without mentioning Jessica, the bartender.  She seems to make all stay a little longer then they intend.  If youare ever in the Texas Gulf Coast area, you will be glad you found this place....</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r137892108-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -1124,6 +1762,42 @@
     <t>My husband and I stayed at the CherHotel for my birthday August 9th. ,2012, We look forward to staying there many more times , our room was really nice and the staff were great! ,and  the Price Was Nice ! I will ask for my old room too. Thanks Staff , Julia from Kerrville TX.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r137482711-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>137482711</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>only hotel to stay  in fair price</t>
+  </si>
+  <si>
+    <t>My Wife and I stayed at the Cherotel Reception and Conference Center on August 10-12-2012. The staff bent over backwards to make our stay a great one. I stay many days a year in Hotels most major chains. My wife and I drove from FT Worth to dive at Mammoth Lake Dive site. We ate at two seafood restaurant Asial next Mammoth Lake and On The River. It was our second time staying in Lake Jackson /Clute, TX. If it was not for Cherotel Reception and Conference Center would not return or I would stay in Houston or a tent.  Our first stay in Lake Jackson /Clute, TX was so BAD that I called the Chamber of  Commerce to let them know what I thought about there over priced hotels and rude people.  The response was that Dow Chemical and Exxon was spending $5B in construction. It seems that that was the City Manage only love a Mosquito’s and that 5 out of the 9 hotels was owned by 1 MAN.  Again If it was not for Cherotel Reception and Conference Center would not return or I would stay in Houston or a tent.MoreShow less</t>
+  </si>
+  <si>
+    <t>My Wife and I stayed at the Cherotel Reception and Conference Center on August 10-12-2012. The staff bent over backwards to make our stay a great one. I stay many days a year in Hotels most major chains. My wife and I drove from FT Worth to dive at Mammoth Lake Dive site. We ate at two seafood restaurant Asial next Mammoth Lake and On The River. It was our second time staying in Lake Jackson /Clute, TX. If it was not for Cherotel Reception and Conference Center would not return or I would stay in Houston or a tent.  Our first stay in Lake Jackson /Clute, TX was so BAD that I called the Chamber of  Commerce to let them know what I thought about there over priced hotels and rude people.  The response was that Dow Chemical and Exxon was spending $5B in construction. It seems that that was the City Manage only love a Mosquito’s and that 5 out of the 9 hotels was owned by 1 MAN.  Again If it was not for Cherotel Reception and Conference Center would not return or I would stay in Houston or a tent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r137111373-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>137111373</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>Great for the area</t>
+  </si>
+  <si>
+    <t>I recently booked a fishing group into the hotel. The reservations were handled without a problem. The staff was friendly and the Hotel was nice for the area. I have stayed at many hotels in the area and everyone of them suffers from the humidity and the salt air. This area is surrounded by oil refineries so if you are looking for the Ritz drive to Houston. Around here if you don't see mold and rust its a clean hotel. The staff was frinedly. The breakfast, included with the room, was toast and cereal put out from 7 to 9:30 a.m. The Hotel was quiet, safe, relatively clean and the staff was nice. What more can you want?MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently booked a fishing group into the hotel. The reservations were handled without a problem. The staff was friendly and the Hotel was nice for the area. I have stayed at many hotels in the area and everyone of them suffers from the humidity and the salt air. This area is surrounded by oil refineries so if you are looking for the Ritz drive to Houston. Around here if you don't see mold and rust its a clean hotel. The staff was frinedly. The breakfast, included with the room, was toast and cereal put out from 7 to 9:30 a.m. The Hotel was quiet, safe, relatively clean and the staff was nice. What more can you want?More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r136558334-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -1172,6 +1846,36 @@
     <t>This hotel was very clean, the staff was very friendly, and it was very conveniently located.  Its only about 10 minutes to the best beach in Texas.   The pool is also very relaxing.  We will be staying here again very soon.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r135455592-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>135455592</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Awesome service</t>
+  </si>
+  <si>
+    <t>I stay at this hotel everytime I go to Brazoria County-the people are always very helpful and friendly-I absolutely love the rooms upstairs and the jacuzzi rooms.  Very comfy beds and clean.  Andrea-you rock! I will be back soon-</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r135256874-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>135256874</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>GREAT STAY!!</t>
+  </si>
+  <si>
+    <t>Thank you to the staff, especially, Andrea, for out great stay.  We have stayed at the Cherotel for the last 5 years and this year was by far the best experience we have had.  Andrea, at the front desk, is to be commended for her customer service.  She is definitely an asset to the warm welcome and accomidating to the guests.  The rooms were clean and very comfortable and the price was great too.  All the staff there went above and beyond to help us.  Thanks again!!  We look forward to many more visits....</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r134744944-Clarion_Inn-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1922,71 @@
   </si>
   <si>
     <t>This hotel is is serious need of a makeover, The rooms were tired and our upgrade to a deluxe room was a king size mattress laid on top of the existing double bed and mattress. I needed a running jump to get into bed! The carpet felt tacky and the room smelled musty.The breakfast was very limited. We had driven from DC to a wedding here and it was one of the poorest places we stayed in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r132853329-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>132853329</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>I wouldn't stay here again</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Cherhotel 6/21-6/23.  
+Pros:  
+The location is good.  The hotel is right off the highway, near restaurants and grocery stores, and only ~20 minutes from the beach.
+The room was a decent size overall, but the bathroom was TINY.  
+The pillows were comfortable
+The breakfast was adequate.  
+The front desk was attentive each time I needed them.  
+Live music on Thursday night.  Our room was right next to the stage so it was very loud but I enjoyed it.  Someone trying to take a nap wouldn't be able to though.
+Decent price.
+Cons:
+Our room (and many of the rooms) had a window that faced the lobby/bar.  This means that pretty much all of the sound from the lobby was audible in the room.  This also means that there was no natural light available to the room.  This also means that your privacy is reduced.  I guess one positive to having this window (which had a sliding glass door) is that you could get to the lobby easier.
+The trash cans were the smallest I've ever seen in a hotel room.  
+The mattress had a defined peak in the middle and slopes on the sides.
+Our room number was 130 which backed up to Suite 129 which is actually a conference room.  I was woken up on Friday morning to a lecture next door about plane crashes.  It was like I was in the...My wife and I stayed at the Cherhotel 6/21-6/23.  Pros:  The location is good.  The hotel is right off the highway, near restaurants and grocery stores, and only ~20 minutes from the beach.The room was a decent size overall, but the bathroom was TINY.  The pillows were comfortableThe breakfast was adequate.  The front desk was attentive each time I needed them.  Live music on Thursday night.  Our room was right next to the stage so it was very loud but I enjoyed it.  Someone trying to take a nap wouldn't be able to though.Decent price.Cons:Our room (and many of the rooms) had a window that faced the lobby/bar.  This means that pretty much all of the sound from the lobby was audible in the room.  This also means that there was no natural light available to the room.  This also means that your privacy is reduced.  I guess one positive to having this window (which had a sliding glass door) is that you could get to the lobby easier.The trash cans were the smallest I've ever seen in a hotel room.  The mattress had a defined peak in the middle and slopes on the sides.Our room number was 130 which backed up to Suite 129 which is actually a conference room.  I was woken up on Friday morning to a lecture next door about plane crashes.  It was like I was in the same room.  I could hear every word he was saying perfectly.Any noise in the hallway is very clear in the room.  I know this is common for a lot of hotels, but it seemed particularly bad in this hotel.  Being next to the pool, we had very loud kids running back and forth through the halls.  Also, the other guests could be very loud at times.  We heard a couple yelling at 2 am.  We did not get 1 good night sleep.  We couldn't sleep in either due to the loud conference room next door.We had friends also staying at this hotel, and some of their rooms had damp carpets and sheets.  They were able to change rooms, however.The bathroom was very small.  We had to rotate the door constantly in order to use the bathroom and tub.  There were hairs in the tub and on the toilet seat.  They do not provide lotion FYI.  Overall:  I would prefer to spend an extra few bucks and stay at another hotel in Lake Jackson.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Cherhotel 6/21-6/23.  
+Pros:  
+The location is good.  The hotel is right off the highway, near restaurants and grocery stores, and only ~20 minutes from the beach.
+The room was a decent size overall, but the bathroom was TINY.  
+The pillows were comfortable
+The breakfast was adequate.  
+The front desk was attentive each time I needed them.  
+Live music on Thursday night.  Our room was right next to the stage so it was very loud but I enjoyed it.  Someone trying to take a nap wouldn't be able to though.
+Decent price.
+Cons:
+Our room (and many of the rooms) had a window that faced the lobby/bar.  This means that pretty much all of the sound from the lobby was audible in the room.  This also means that there was no natural light available to the room.  This also means that your privacy is reduced.  I guess one positive to having this window (which had a sliding glass door) is that you could get to the lobby easier.
+The trash cans were the smallest I've ever seen in a hotel room.  
+The mattress had a defined peak in the middle and slopes on the sides.
+Our room number was 130 which backed up to Suite 129 which is actually a conference room.  I was woken up on Friday morning to a lecture next door about plane crashes.  It was like I was in the...My wife and I stayed at the Cherhotel 6/21-6/23.  Pros:  The location is good.  The hotel is right off the highway, near restaurants and grocery stores, and only ~20 minutes from the beach.The room was a decent size overall, but the bathroom was TINY.  The pillows were comfortableThe breakfast was adequate.  The front desk was attentive each time I needed them.  Live music on Thursday night.  Our room was right next to the stage so it was very loud but I enjoyed it.  Someone trying to take a nap wouldn't be able to though.Decent price.Cons:Our room (and many of the rooms) had a window that faced the lobby/bar.  This means that pretty much all of the sound from the lobby was audible in the room.  This also means that there was no natural light available to the room.  This also means that your privacy is reduced.  I guess one positive to having this window (which had a sliding glass door) is that you could get to the lobby easier.The trash cans were the smallest I've ever seen in a hotel room.  The mattress had a defined peak in the middle and slopes on the sides.Our room number was 130 which backed up to Suite 129 which is actually a conference room.  I was woken up on Friday morning to a lecture next door about plane crashes.  It was like I was in the same room.  I could hear every word he was saying perfectly.Any noise in the hallway is very clear in the room.  I know this is common for a lot of hotels, but it seemed particularly bad in this hotel.  Being next to the pool, we had very loud kids running back and forth through the halls.  Also, the other guests could be very loud at times.  We heard a couple yelling at 2 am.  We did not get 1 good night sleep.  We couldn't sleep in either due to the loud conference room next door.We had friends also staying at this hotel, and some of their rooms had damp carpets and sheets.  They were able to change rooms, however.The bathroom was very small.  We had to rotate the door constantly in order to use the bathroom and tub.  There were hairs in the tub and on the toilet seat.  They do not provide lotion FYI.  Overall:  I would prefer to spend an extra few bucks and stay at another hotel in Lake Jackson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r131629178-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>131629178</t>
+  </si>
+  <si>
+    <t>06/09/2012</t>
+  </si>
+  <si>
+    <t>Very Dangerous</t>
+  </si>
+  <si>
+    <t>For two weeks starting may 15th through the 29th  my girlfriend came down from Canada for a visit. For the whole two weeks the hotel was full of drunks, the cops had to be called out twice, first time 5 cops showed up due to a fight and the second time 2 cops were called, both times no one was taken away. During the two weeks drunks were leering and making comments at my girlfriend, one night one of the drunks were staring at her and following her. I had her hurry to the room and lock the door. We both thought that if I hadn't been there that they would have taken advantage of her. When she went to complain all the front desk told her was we're sorry and did nothing to make the situation right. I do not recommend this hotel to anyone. The room had bugs, the fridge wasn't plugged in, the bed was on small blocks of wood and it fell off of them the first time we sat on the bed. The AC made the room to cold, and if you turned it off the room got to hot. Personally I think it would be safer and cleaner to sleep on a park bench.MoreShow less</t>
+  </si>
+  <si>
+    <t>For two weeks starting may 15th through the 29th  my girlfriend came down from Canada for a visit. For the whole two weeks the hotel was full of drunks, the cops had to be called out twice, first time 5 cops showed up due to a fight and the second time 2 cops were called, both times no one was taken away. During the two weeks drunks were leering and making comments at my girlfriend, one night one of the drunks were staring at her and following her. I had her hurry to the room and lock the door. We both thought that if I hadn't been there that they would have taken advantage of her. When she went to complain all the front desk told her was we're sorry and did nothing to make the situation right. I do not recommend this hotel to anyone. The room had bugs, the fridge wasn't plugged in, the bed was on small blocks of wood and it fell off of them the first time we sat on the bed. The AC made the room to cold, and if you turned it off the room got to hot. Personally I think it would be safer and cleaner to sleep on a park bench.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r128281352-Clarion_Inn-Lake_Jackson_Texas.html</t>
@@ -1282,6 +2051,39 @@
   </si>
   <si>
     <t>Our entire extended family stayed there for 3 nights during the holidays.  4 rooms and one suite.  It could not have been nicer for the price.  They gave us free upgrades for calling on the phone.    It had a great lobby atrium that we used a couple of times to all sit and chat.  The rooms were very clean and had a large flat screen tv. I personally chatted with four different front desk staff and all were very nice and eager to do anything extra that we needed for pillows or rollaways.   The breakfast was ample but not hot except for the danishes.  The beds were very comfortable.   The bar was great and the food items on the restaurant menu were family priced.  We will be back and booked more rooms for the summer for a family reunion.   I saw the 49 dollar rooms that are reserved for contractors and don't think they are family friendly.  It was well worth 10 bucks more for the executive rooms and amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r121573868-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>121573868</t>
+  </si>
+  <si>
+    <t>12/09/2011</t>
+  </si>
+  <si>
+    <t>It is a good value for money</t>
+  </si>
+  <si>
+    <t>Despite of the bad review it is a reasonable good hotel, we payed 49 dollar (aks for the special tripple A rate) (plus tax). With complemantery simpel breakfast. Our room was on the back, renovated rooms, clean beds, maybe they also need to replace the towels: they were clean but washed a lot. No problem with parking on the back. For a overnight it is a good value for money.Don't forget to eat next door at Shanghai Restaurant, we enjoyed the food, very good!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d106751-r121456512-Clarion_Inn-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>121456512</t>
+  </si>
+  <si>
+    <t>12/06/2011</t>
+  </si>
+  <si>
+    <t>Must be desperate to stay here.</t>
+  </si>
+  <si>
+    <t>We had a room in back.  We were afraid to leave our car in the back pkg lot, it was a thoroughfare and seemed ripe for break ins.  The hotel looked good From the street but the sides and back were very shabby.  The entrance from back pkg lot had two old chairs outside the door for smokers so we had to hold our breath while entering.  The carpet from there to the elevator was filthy find the elevators was dirty and run down.I won't complain about the old broken furniture lining the halls since I supposed it related to remodeling although it wasnt even nearly arranged, just kind of thrown there.Our room seemed to have a decent bed and furniture but there was a CLOTH recliner that we were afraid to sit on without covering it with the upside down bedspread. The shower seemed to have new tiling but they had kept the old pitted hardware.  The towel rack was completely rusted and it appeared no one ever cleaned behind the bathroom door.We hardly slept just thinking about what bugs might be lurking about.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a room in back.  We were afraid to leave our car in the back pkg lot, it was a thoroughfare and seemed ripe for break ins.  The hotel looked good From the street but the sides and back were very shabby.  The entrance from back pkg lot had two old chairs outside the door for smokers so we had to hold our breath while entering.  The carpet from there to the elevator was filthy find the elevators was dirty and run down.I won't complain about the old broken furniture lining the halls since I supposed it related to remodeling although it wasnt even nearly arranged, just kind of thrown there.Our room seemed to have a decent bed and furniture but there was a CLOTH recliner that we were afraid to sit on without covering it with the upside down bedspread. The shower seemed to have new tiling but they had kept the old pitted hardware.  The towel rack was completely rusted and it appeared no one ever cleaned behind the bathroom door.We hardly slept just thinking about what bugs might be lurking about.More</t>
   </si>
 </sst>
 </file>
@@ -1824,16 +2626,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1877,10 +2675,14 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1909,7 +2711,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1918,22 +2720,26 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1946,7 +2752,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1962,7 +2768,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1971,22 +2777,26 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1999,7 +2809,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2015,7 +2825,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2024,39 +2834,43 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2072,7 +2886,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2081,45 +2895,35 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" t="s">
-        <v>75</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2135,7 +2939,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2144,26 +2948,22 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" t="s">
-        <v>87</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -2176,7 +2976,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -2192,7 +2992,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2201,34 +3001,34 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>1</v>
@@ -2239,7 +3039,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -2255,7 +3055,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2264,37 +3064,37 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2302,7 +3102,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -2339,35 +3139,23 @@
         <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" t="s">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" t="s">
-        <v>110</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -2383,56 +3171,48 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
         <v>112</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>113</v>
-      </c>
-      <c r="J12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" t="s">
-        <v>116</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>109</v>
-      </c>
-      <c r="X12" t="s">
-        <v>110</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2448,52 +3228,54 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
         <v>118</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>119</v>
       </c>
-      <c r="J13" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" t="s">
-        <v>122</v>
-      </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
         <v>52</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>109</v>
-      </c>
-      <c r="X13" t="s">
-        <v>110</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -2509,34 +3291,34 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
         <v>124</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>125</v>
       </c>
-      <c r="J14" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" t="s">
-        <v>128</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s">
-        <v>129</v>
-      </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2547,14 +3329,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>109</v>
-      </c>
-      <c r="X14" t="s">
-        <v>110</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -2570,7 +3348,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2579,49 +3357,39 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>109</v>
-      </c>
-      <c r="X15" t="s">
-        <v>110</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -2637,7 +3405,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2646,25 +3414,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2675,14 +3443,10 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>109</v>
-      </c>
-      <c r="X16" t="s">
-        <v>110</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -2698,7 +3462,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2707,49 +3471,45 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="O17" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>109</v>
-      </c>
-      <c r="X17" t="s">
-        <v>110</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
@@ -2765,7 +3525,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2774,39 +3534,45 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -2822,52 +3588,52 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>157</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>158</v>
-      </c>
-      <c r="J19" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L19" t="s">
-        <v>161</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>162</v>
-      </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>164</v>
-      </c>
-      <c r="X19" t="s">
-        <v>165</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -2883,7 +3649,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2892,45 +3658,43 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>164</v>
+      </c>
+      <c r="X20" t="s">
+        <v>165</v>
+      </c>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -2946,7 +3710,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2955,32 +3719,32 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2988,10 +3752,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>164</v>
+      </c>
+      <c r="X21" t="s">
+        <v>165</v>
+      </c>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
@@ -3007,7 +3775,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3016,39 +3784,47 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>164</v>
+      </c>
+      <c r="X22" t="s">
+        <v>165</v>
+      </c>
       <c r="Y22" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23">
@@ -3064,7 +3840,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3073,25 +3849,25 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3102,10 +3878,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>164</v>
+      </c>
+      <c r="X23" t="s">
+        <v>165</v>
+      </c>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
@@ -3121,48 +3901,58 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
         <v>190</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>172</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>164</v>
+      </c>
+      <c r="X24" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y24" t="s">
         <v>191</v>
-      </c>
-      <c r="J24" t="s">
-        <v>192</v>
-      </c>
-      <c r="K24" t="s">
-        <v>193</v>
-      </c>
-      <c r="L24" t="s">
-        <v>194</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>178</v>
-      </c>
-      <c r="O24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
-      <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="25">
@@ -3178,52 +3968,56 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
         <v>196</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J25" t="s">
-        <v>198</v>
-      </c>
-      <c r="K25" t="s">
-        <v>199</v>
-      </c>
-      <c r="L25" t="s">
-        <v>200</v>
-      </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>164</v>
+      </c>
+      <c r="X25" t="s">
+        <v>165</v>
+      </c>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
@@ -3239,52 +4033,52 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
         <v>202</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
         <v>203</v>
       </c>
-      <c r="J26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K26" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26" t="s">
-        <v>206</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>207</v>
-      </c>
       <c r="O26" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>164</v>
+      </c>
+      <c r="X26" t="s">
+        <v>165</v>
+      </c>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27">
@@ -3300,48 +4094,58 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
         <v>208</v>
       </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>209</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>210</v>
       </c>
-      <c r="K27" t="s">
-        <v>211</v>
-      </c>
-      <c r="L27" t="s">
-        <v>212</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s">
-        <v>201</v>
-      </c>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>164</v>
+      </c>
+      <c r="X27" t="s">
+        <v>165</v>
+      </c>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
@@ -3357,52 +4161,52 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
         <v>213</v>
       </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>214</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>215</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>216</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
         <v>217</v>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>218</v>
-      </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>1</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>164</v>
+      </c>
+      <c r="X28" t="s">
+        <v>165</v>
+      </c>
       <c r="Y28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
@@ -3418,52 +4222,50 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
         <v>220</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>221</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>222</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>223</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>224</v>
       </c>
-      <c r="M29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>2</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>164</v>
+      </c>
+      <c r="X29" t="s">
+        <v>165</v>
+      </c>
       <c r="Y29" t="s">
         <v>225</v>
       </c>
@@ -3502,10 +4304,10 @@
         <v>230</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
         <v>52</v>
@@ -3519,10 +4321,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>164</v>
+      </c>
+      <c r="X30" t="s">
+        <v>165</v>
+      </c>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
@@ -3559,31 +4365,37 @@
         <v>236</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>164</v>
+      </c>
+      <c r="X31" t="s">
+        <v>165</v>
+      </c>
       <c r="Y31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
@@ -3599,58 +4411,48 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
         <v>239</v>
       </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>240</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>241</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>242</v>
       </c>
-      <c r="L32" t="s">
-        <v>243</v>
-      </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="O32" t="s">
-        <v>94</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33">
@@ -3666,58 +4468,52 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" t="s">
         <v>245</v>
       </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>246</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>247</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
         <v>248</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>249</v>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="X33" t="s">
         <v>250</v>
       </c>
-      <c r="O33" t="s">
-        <v>75</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
-      <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -3733,7 +4529,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3742,37 +4538,35 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3796,52 +4590,54 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" t="s">
+        <v>261</v>
+      </c>
+      <c r="L35" t="s">
+        <v>262</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>257</v>
       </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" t="s">
-        <v>258</v>
-      </c>
-      <c r="J35" t="s">
-        <v>259</v>
-      </c>
-      <c r="K35" t="s">
-        <v>260</v>
-      </c>
-      <c r="L35" t="s">
-        <v>261</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>262</v>
-      </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
         <v>263</v>
-      </c>
-      <c r="X35" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="36">
@@ -3857,58 +4653,54 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" t="s">
         <v>266</v>
       </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>267</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>268</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
         <v>269</v>
       </c>
-      <c r="L36" t="s">
-        <v>270</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>262</v>
-      </c>
       <c r="O36" t="s">
-        <v>163</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>271</v>
-      </c>
-      <c r="X36" t="s">
-        <v>272</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37">
@@ -3924,58 +4716,52 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
         <v>274</v>
       </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>275</v>
       </c>
-      <c r="J37" t="s">
-        <v>276</v>
-      </c>
-      <c r="K37" t="s">
-        <v>277</v>
-      </c>
-      <c r="L37" t="s">
-        <v>278</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>271</v>
-      </c>
-      <c r="X37" t="s">
-        <v>272</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38">
@@ -3991,58 +4777,48 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
         <v>280</v>
       </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" t="s">
-        <v>281</v>
-      </c>
-      <c r="J38" t="s">
-        <v>282</v>
-      </c>
-      <c r="K38" t="s">
-        <v>283</v>
-      </c>
-      <c r="L38" t="s">
-        <v>284</v>
-      </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="O38" t="s">
-        <v>75</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
@@ -4058,50 +4834,54 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>283</v>
+      </c>
+      <c r="J39" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s">
         <v>285</v>
       </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>286</v>
       </c>
-      <c r="J39" t="s">
-        <v>287</v>
-      </c>
-      <c r="K39" t="s">
-        <v>288</v>
-      </c>
-      <c r="L39" t="s">
-        <v>289</v>
-      </c>
       <c r="M39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
       <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>290</v>
-      </c>
-      <c r="X39" t="s">
-        <v>291</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -4117,7 +4897,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4126,53 +4906,43 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J40" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K40" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="O40" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>290</v>
-      </c>
-      <c r="X40" t="s">
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
         <v>291</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="41">
@@ -4188,7 +4958,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4197,28 +4967,30 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="J41" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K41" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L41" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>275</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="s"/>
       <c r="V41" t="n">
@@ -4227,7 +4999,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42">
@@ -4243,7 +5015,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4252,49 +5024,39 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J42" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K42" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="O42" t="s">
-        <v>94</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>3</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43">
@@ -4310,7 +5072,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4319,41 +5081,35 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="J43" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K43" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4361,7 +5117,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44">
@@ -4377,7 +5133,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4386,37 +5142,33 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J44" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K44" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="O44" t="s">
-        <v>75</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4428,7 +5180,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45">
@@ -4444,7 +5196,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4453,38 +5205,34 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
       </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
         <v>5</v>
       </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4495,7 +5243,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46">
@@ -4511,7 +5259,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4520,41 +5268,35 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="J46" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K46" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4562,7 +5304,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47">
@@ -4578,7 +5320,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4587,49 +5329,39 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J47" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K47" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48">
@@ -4645,7 +5377,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4654,41 +5386,35 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J48" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="O48" t="s">
-        <v>75</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4696,7 +5422,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49">
@@ -4712,7 +5438,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4721,45 +5447,39 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J49" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K49" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>337</v>
+      </c>
+      <c r="O49" t="s">
+        <v>136</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>2</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50">
@@ -4775,7 +5495,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4784,49 +5504,39 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J50" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="K50" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="O50" t="s">
-        <v>87</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51">
@@ -4842,7 +5552,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -4851,41 +5561,37 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="J51" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K51" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s">
-        <v>363</v>
-      </c>
-      <c r="O51" t="s">
-        <v>87</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="n">
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
         <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -4893,7 +5599,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52">
@@ -4909,7 +5615,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -4918,49 +5624,39 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J52" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K52" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L52" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O52" t="s">
-        <v>163</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>5</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53">
@@ -4976,7 +5672,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -4985,37 +5681,35 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J53" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K53" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>365</v>
+      </c>
+      <c r="O53" t="s">
+        <v>136</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5023,7 +5717,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54">
@@ -5039,7 +5733,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5048,41 +5742,37 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J54" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K54" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="O54" t="s">
-        <v>75</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5090,7 +5780,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55">
@@ -5106,7 +5796,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5115,16 +5805,16 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="J55" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K55" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L55" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
@@ -5133,17 +5823,13 @@
         <v>378</v>
       </c>
       <c r="O55" t="s">
-        <v>75</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="n">
         <v>5</v>
       </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
+      <c r="R55" t="s"/>
       <c r="S55" t="n">
         <v>5</v>
       </c>
@@ -5157,7 +5843,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56">
@@ -5173,7 +5859,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5182,41 +5868,41 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J56" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K56" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L56" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="O56" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5224,7 +5910,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57">
@@ -5240,7 +5926,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5249,41 +5935,41 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J57" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K57" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L57" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="O57" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5291,7 +5977,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58">
@@ -5307,7 +5993,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5316,41 +6002,37 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J58" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K58" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L58" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
-      </c>
-      <c r="N58" t="s">
-        <v>356</v>
-      </c>
-      <c r="O58" t="s">
-        <v>163</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5358,7 +6040,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59">
@@ -5374,58 +6056,56 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>397</v>
+      </c>
+      <c r="J59" t="s">
+        <v>398</v>
+      </c>
+      <c r="K59" t="s">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s">
         <v>400</v>
       </c>
-      <c r="G59" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59" t="s">
-        <v>46</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
         <v>401</v>
       </c>
-      <c r="J59" t="s">
-        <v>402</v>
-      </c>
-      <c r="K59" t="s">
-        <v>403</v>
-      </c>
-      <c r="L59" t="s">
-        <v>404</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3</v>
-      </c>
-      <c r="N59" t="s">
-        <v>405</v>
-      </c>
       <c r="O59" t="s">
-        <v>94</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
       <c r="R59" t="n">
-        <v>3</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>402</v>
+      </c>
+      <c r="X59" t="s">
+        <v>403</v>
+      </c>
       <c r="Y59" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60">
@@ -5441,58 +6121,52 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" t="s">
         <v>407</v>
       </c>
-      <c r="G60" t="s">
-        <v>45</v>
-      </c>
-      <c r="H60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>408</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>409</v>
       </c>
-      <c r="K60" t="s">
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
         <v>410</v>
       </c>
-      <c r="L60" t="s">
+      <c r="O60" t="s">
+        <v>143</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
         <v>411</v>
       </c>
-      <c r="M60" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="X60" t="s">
         <v>412</v>
       </c>
-      <c r="O60" t="s">
-        <v>163</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
-      <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61">
@@ -5508,7 +6182,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -5517,49 +6191,2941 @@
         <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K61" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L61" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="O61" t="s">
-        <v>75</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>4</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4</v>
-      </c>
-      <c r="S61" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>411</v>
+      </c>
+      <c r="X61" t="s">
+        <v>412</v>
+      </c>
       <c r="Y61" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>420</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>421</v>
+      </c>
+      <c r="J62" t="s">
+        <v>422</v>
+      </c>
+      <c r="K62" t="s">
+        <v>423</v>
+      </c>
+      <c r="L62" t="s">
+        <v>424</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>410</v>
+      </c>
+      <c r="O62" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>425</v>
+      </c>
+      <c r="X62" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>428</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>429</v>
+      </c>
+      <c r="J63" t="s">
+        <v>430</v>
+      </c>
+      <c r="K63" t="s">
+        <v>431</v>
+      </c>
+      <c r="L63" t="s">
+        <v>432</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>425</v>
+      </c>
+      <c r="X63" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>434</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>435</v>
+      </c>
+      <c r="J64" t="s">
+        <v>436</v>
+      </c>
+      <c r="K64" t="s">
+        <v>437</v>
+      </c>
+      <c r="L64" t="s">
+        <v>438</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>410</v>
+      </c>
+      <c r="O64" t="s">
+        <v>58</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>439</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>440</v>
+      </c>
+      <c r="J65" t="s">
+        <v>436</v>
+      </c>
+      <c r="K65" t="s">
+        <v>441</v>
+      </c>
+      <c r="L65" t="s">
+        <v>442</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>443</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>444</v>
+      </c>
+      <c r="J66" t="s">
+        <v>445</v>
+      </c>
+      <c r="K66" t="s">
+        <v>446</v>
+      </c>
+      <c r="L66" t="s">
+        <v>447</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>410</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>448</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>449</v>
+      </c>
+      <c r="J67" t="s">
+        <v>450</v>
+      </c>
+      <c r="K67" t="s">
+        <v>451</v>
+      </c>
+      <c r="L67" t="s">
+        <v>452</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>453</v>
+      </c>
+      <c r="X67" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>456</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>457</v>
+      </c>
+      <c r="J68" t="s">
+        <v>458</v>
+      </c>
+      <c r="K68" t="s">
+        <v>459</v>
+      </c>
+      <c r="L68" t="s">
+        <v>460</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>461</v>
+      </c>
+      <c r="O68" t="s">
+        <v>143</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>453</v>
+      </c>
+      <c r="X68" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>463</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>464</v>
+      </c>
+      <c r="J69" t="s">
+        <v>465</v>
+      </c>
+      <c r="K69" t="s">
+        <v>466</v>
+      </c>
+      <c r="L69" t="s">
+        <v>467</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>468</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>469</v>
+      </c>
+      <c r="J70" t="s">
+        <v>470</v>
+      </c>
+      <c r="K70" t="s">
+        <v>83</v>
+      </c>
+      <c r="L70" t="s">
+        <v>471</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>472</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>473</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>474</v>
+      </c>
+      <c r="J71" t="s">
+        <v>475</v>
+      </c>
+      <c r="K71" t="s">
+        <v>476</v>
+      </c>
+      <c r="L71" t="s">
+        <v>477</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>478</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>479</v>
+      </c>
+      <c r="J72" t="s">
+        <v>480</v>
+      </c>
+      <c r="K72" t="s">
+        <v>481</v>
+      </c>
+      <c r="L72" t="s">
+        <v>482</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>483</v>
+      </c>
+      <c r="O72" t="s">
+        <v>143</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>485</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>486</v>
+      </c>
+      <c r="J73" t="s">
+        <v>487</v>
+      </c>
+      <c r="K73" t="s">
+        <v>488</v>
+      </c>
+      <c r="L73" t="s">
+        <v>489</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>490</v>
+      </c>
+      <c r="O73" t="s">
+        <v>58</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>492</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>493</v>
+      </c>
+      <c r="J74" t="s">
+        <v>494</v>
+      </c>
+      <c r="K74" t="s">
+        <v>495</v>
+      </c>
+      <c r="L74" t="s">
+        <v>496</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>497</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>498</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>499</v>
+      </c>
+      <c r="J75" t="s">
+        <v>500</v>
+      </c>
+      <c r="K75" t="s">
+        <v>501</v>
+      </c>
+      <c r="L75" t="s">
+        <v>502</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>497</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>503</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>504</v>
+      </c>
+      <c r="J76" t="s">
+        <v>505</v>
+      </c>
+      <c r="K76" t="s">
+        <v>506</v>
+      </c>
+      <c r="L76" t="s">
+        <v>507</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>508</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>509</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>510</v>
+      </c>
+      <c r="J77" t="s">
+        <v>505</v>
+      </c>
+      <c r="K77" t="s">
+        <v>511</v>
+      </c>
+      <c r="L77" t="s">
+        <v>512</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>508</v>
+      </c>
+      <c r="O77" t="s">
+        <v>58</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>513</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>514</v>
+      </c>
+      <c r="J78" t="s">
+        <v>505</v>
+      </c>
+      <c r="K78" t="s">
+        <v>515</v>
+      </c>
+      <c r="L78" t="s">
+        <v>516</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>508</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>517</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>518</v>
+      </c>
+      <c r="J79" t="s">
+        <v>519</v>
+      </c>
+      <c r="K79" t="s">
+        <v>520</v>
+      </c>
+      <c r="L79" t="s">
+        <v>521</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>497</v>
+      </c>
+      <c r="O79" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>523</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>524</v>
+      </c>
+      <c r="J80" t="s">
+        <v>525</v>
+      </c>
+      <c r="K80" t="s">
+        <v>526</v>
+      </c>
+      <c r="L80" t="s">
+        <v>527</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>528</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>529</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>530</v>
+      </c>
+      <c r="J81" t="s">
+        <v>531</v>
+      </c>
+      <c r="K81" t="s">
+        <v>532</v>
+      </c>
+      <c r="L81" t="s">
+        <v>533</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>528</v>
+      </c>
+      <c r="O81" t="s">
+        <v>136</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>534</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>535</v>
+      </c>
+      <c r="J82" t="s">
+        <v>536</v>
+      </c>
+      <c r="K82" t="s">
+        <v>537</v>
+      </c>
+      <c r="L82" t="s">
+        <v>538</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>539</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>540</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>541</v>
+      </c>
+      <c r="J83" t="s">
+        <v>542</v>
+      </c>
+      <c r="K83" t="s">
+        <v>543</v>
+      </c>
+      <c r="L83" t="s">
+        <v>544</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>546</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>547</v>
+      </c>
+      <c r="J84" t="s">
+        <v>548</v>
+      </c>
+      <c r="K84" t="s">
+        <v>549</v>
+      </c>
+      <c r="L84" t="s">
+        <v>550</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>551</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>553</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>554</v>
+      </c>
+      <c r="J85" t="s">
+        <v>555</v>
+      </c>
+      <c r="K85" t="s">
+        <v>556</v>
+      </c>
+      <c r="L85" t="s">
+        <v>557</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>558</v>
+      </c>
+      <c r="O85" t="s">
+        <v>143</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>559</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>560</v>
+      </c>
+      <c r="J86" t="s">
+        <v>561</v>
+      </c>
+      <c r="K86" t="s">
+        <v>562</v>
+      </c>
+      <c r="L86" t="s">
+        <v>563</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>564</v>
+      </c>
+      <c r="O86" t="s">
+        <v>136</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>566</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>567</v>
+      </c>
+      <c r="J87" t="s">
+        <v>568</v>
+      </c>
+      <c r="K87" t="s">
+        <v>569</v>
+      </c>
+      <c r="L87" t="s">
+        <v>570</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>571</v>
+      </c>
+      <c r="O87" t="s">
+        <v>136</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>572</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>573</v>
+      </c>
+      <c r="J88" t="s">
+        <v>568</v>
+      </c>
+      <c r="K88" t="s">
+        <v>574</v>
+      </c>
+      <c r="L88" t="s">
+        <v>575</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>571</v>
+      </c>
+      <c r="O88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>576</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>577</v>
+      </c>
+      <c r="J89" t="s">
+        <v>578</v>
+      </c>
+      <c r="K89" t="s">
+        <v>579</v>
+      </c>
+      <c r="L89" t="s">
+        <v>580</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>571</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>582</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>583</v>
+      </c>
+      <c r="J90" t="s">
+        <v>584</v>
+      </c>
+      <c r="K90" t="s">
+        <v>585</v>
+      </c>
+      <c r="L90" t="s">
+        <v>586</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>571</v>
+      </c>
+      <c r="O90" t="s">
+        <v>136</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>588</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>589</v>
+      </c>
+      <c r="J91" t="s">
+        <v>590</v>
+      </c>
+      <c r="K91" t="s">
+        <v>591</v>
+      </c>
+      <c r="L91" t="s">
+        <v>592</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>593</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>594</v>
+      </c>
+      <c r="J92" t="s">
+        <v>595</v>
+      </c>
+      <c r="K92" t="s">
+        <v>596</v>
+      </c>
+      <c r="L92" t="s">
+        <v>597</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>598</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>599</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>600</v>
+      </c>
+      <c r="J93" t="s">
+        <v>601</v>
+      </c>
+      <c r="K93" t="s">
+        <v>602</v>
+      </c>
+      <c r="L93" t="s">
+        <v>603</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>598</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>604</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>605</v>
+      </c>
+      <c r="J94" t="s">
+        <v>606</v>
+      </c>
+      <c r="K94" t="s">
+        <v>607</v>
+      </c>
+      <c r="L94" t="s">
+        <v>608</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>598</v>
+      </c>
+      <c r="O94" t="s">
+        <v>72</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>609</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>610</v>
+      </c>
+      <c r="J95" t="s">
+        <v>611</v>
+      </c>
+      <c r="K95" t="s">
+        <v>612</v>
+      </c>
+      <c r="L95" t="s">
+        <v>613</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>598</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>614</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>615</v>
+      </c>
+      <c r="J96" t="s">
+        <v>616</v>
+      </c>
+      <c r="K96" t="s">
+        <v>617</v>
+      </c>
+      <c r="L96" t="s">
+        <v>618</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>564</v>
+      </c>
+      <c r="O96" t="s">
+        <v>72</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>620</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>621</v>
+      </c>
+      <c r="J97" t="s">
+        <v>622</v>
+      </c>
+      <c r="K97" t="s">
+        <v>623</v>
+      </c>
+      <c r="L97" t="s">
+        <v>624</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>598</v>
+      </c>
+      <c r="O97" t="s">
+        <v>52</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>625</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>626</v>
+      </c>
+      <c r="J98" t="s">
+        <v>627</v>
+      </c>
+      <c r="K98" t="s">
+        <v>628</v>
+      </c>
+      <c r="L98" t="s">
+        <v>629</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>564</v>
+      </c>
+      <c r="O98" t="s">
+        <v>72</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>630</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>631</v>
+      </c>
+      <c r="J99" t="s">
+        <v>632</v>
+      </c>
+      <c r="K99" t="s">
+        <v>633</v>
+      </c>
+      <c r="L99" t="s">
+        <v>634</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>635</v>
+      </c>
+      <c r="O99" t="s">
+        <v>72</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>2</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>637</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>638</v>
+      </c>
+      <c r="J100" t="s">
+        <v>639</v>
+      </c>
+      <c r="K100" t="s">
+        <v>640</v>
+      </c>
+      <c r="L100" t="s">
+        <v>641</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>564</v>
+      </c>
+      <c r="O100" t="s">
+        <v>72</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>643</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>644</v>
+      </c>
+      <c r="J101" t="s">
+        <v>645</v>
+      </c>
+      <c r="K101" t="s">
+        <v>646</v>
+      </c>
+      <c r="L101" t="s">
+        <v>647</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>648</v>
+      </c>
+      <c r="O101" t="s">
+        <v>143</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>650</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>651</v>
+      </c>
+      <c r="J102" t="s">
+        <v>652</v>
+      </c>
+      <c r="K102" t="s">
+        <v>653</v>
+      </c>
+      <c r="L102" t="s">
+        <v>654</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>655</v>
+      </c>
+      <c r="O102" t="s">
+        <v>72</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>656</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>657</v>
+      </c>
+      <c r="J103" t="s">
+        <v>658</v>
+      </c>
+      <c r="K103" t="s">
+        <v>659</v>
+      </c>
+      <c r="L103" t="s">
+        <v>660</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>661</v>
+      </c>
+      <c r="O103" t="s">
+        <v>52</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>663</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>664</v>
+      </c>
+      <c r="J104" t="s">
+        <v>665</v>
+      </c>
+      <c r="K104" t="s">
+        <v>666</v>
+      </c>
+      <c r="L104" t="s">
+        <v>667</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>661</v>
+      </c>
+      <c r="O104" t="s">
+        <v>72</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>668</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>669</v>
+      </c>
+      <c r="J105" t="s">
+        <v>670</v>
+      </c>
+      <c r="K105" t="s">
+        <v>671</v>
+      </c>
+      <c r="L105" t="s">
+        <v>672</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
